--- a/Raw Data/Micro Plans/Micro Plan TA-505 Oct '25.xlsx
+++ b/Raw Data/Micro Plans/Micro Plan TA-505 Oct '25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Palp04\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Raw Data\Micro Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BDC9F1-6924-4781-994B-5BF80703C349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB8128-1BA9-4D0C-9015-643C31D9F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Erection-Oct25" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Oct25'!$A$20:$AD$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Erection-Oct25'!$A$20:$AH$69</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FDN!$A$20:$AI$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Erection-Oct25'!$A$1:$J$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">FDN!$A$1:$AI$51</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="215">
   <si>
     <t>Project Code</t>
   </si>
@@ -681,6 +681,15 @@
   </si>
   <si>
     <t>160/2</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Manpower</t>
+  </si>
+  <si>
+    <t>Power Tools Issued (YES/NO)</t>
   </si>
 </sst>
 </file>
@@ -688,11 +697,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -907,7 +916,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1353,20 +1362,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1398,22 +1438,22 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1422,7 +1462,7 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,13 +1477,13 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1464,7 +1504,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1476,10 +1516,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1491,22 +1531,22 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1515,10 +1555,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,16 +1570,16 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1551,7 +1591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1569,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1584,7 +1624,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1596,16 +1636,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1614,7 +1654,7 @@
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1641,7 +1681,7 @@
     <xf numFmtId="4" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,7 +1690,7 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1671,52 +1711,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1768,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,7 +1783,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1761,7 +1801,7 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="19" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1819,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1806,19 +1846,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,6 +1873,126 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1854,16 +2014,82 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1875,104 +2101,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1986,125 +2116,68 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="19" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="9" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2807,26 +2880,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="159"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="199"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="162"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="202"/>
     </row>
     <row r="4" spans="1:11" s="49" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
@@ -2897,11 +2970,11 @@
         <v>5</v>
       </c>
       <c r="F6" s="62">
-        <f>'Erection-Oct25'!M69</f>
+        <f>'Erection-Oct25'!Q69</f>
         <v>27566250.979999986</v>
       </c>
       <c r="G6" s="77">
-        <f>'Erection-Oct25'!AC69</f>
+        <f>'Erection-Oct25'!AG69</f>
         <v>2815813.78</v>
       </c>
     </row>
@@ -2926,12 +2999,12 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="196" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
       <c r="F8" s="79">
         <f>SUM(F5:F7)</f>
         <v>48075445.063227482</v>
@@ -2992,10 +3065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="168"/>
+      <c r="A1" s="230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="230"/>
       <c r="D1" s="17" t="s">
         <v>41</v>
       </c>
@@ -3082,24 +3155,24 @@
         <f>R51</f>
         <v>20193024.083227497</v>
       </c>
-      <c r="H9" s="169" t="s">
+      <c r="H9" s="231" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="169"/>
-      <c r="J9" s="169"/>
-      <c r="L9" s="165" t="s">
+      <c r="I9" s="231"/>
+      <c r="J9" s="231"/>
+      <c r="L9" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="165"/>
+      <c r="M9" s="227"/>
       <c r="N9" s="33">
         <f>E9*10539</f>
         <v>316170</v>
       </c>
-      <c r="O9" s="166">
+      <c r="O9" s="228">
         <f>G9+N9</f>
         <v>20509194.083227497</v>
       </c>
-      <c r="P9" s="167"/>
+      <c r="P9" s="229"/>
     </row>
     <row r="10" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -3231,8 +3304,8 @@
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -3259,19 +3332,19 @@
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="23"/>
-      <c r="L16" s="165" t="s">
+      <c r="L16" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="165"/>
+      <c r="M16" s="227"/>
       <c r="N16" s="33">
         <f>E16*10539</f>
         <v>10539</v>
       </c>
-      <c r="O16" s="166">
+      <c r="O16" s="228">
         <f>G16+N16</f>
         <v>574580.6</v>
       </c>
-      <c r="P16" s="167"/>
+      <c r="P16" s="229"/>
     </row>
     <row r="17" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
@@ -3280,152 +3353,152 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="172" t="s">
+      <c r="A18" s="216" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="218" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="177" t="s">
+      <c r="C18" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="218" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="211" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="177" t="s">
+      <c r="F18" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="177" t="s">
+      <c r="G18" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="177" t="s">
+      <c r="H18" s="211" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="177" t="s">
+      <c r="I18" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="181" t="s">
+      <c r="J18" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="185" t="s">
+      <c r="K18" s="223"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="223"/>
+      <c r="N18" s="223"/>
+      <c r="O18" s="223"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="183"/>
-      <c r="T18" s="177" t="s">
+      <c r="S18" s="203"/>
+      <c r="T18" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="183"/>
-      <c r="V18" s="189" t="s">
+      <c r="U18" s="203"/>
+      <c r="V18" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="190"/>
-      <c r="Z18" s="190"/>
-      <c r="AA18" s="191"/>
+      <c r="W18" s="214"/>
+      <c r="X18" s="214"/>
+      <c r="Y18" s="214"/>
+      <c r="Z18" s="214"/>
+      <c r="AA18" s="215"/>
       <c r="AB18" s="71"/>
-      <c r="AC18" s="189" t="s">
+      <c r="AC18" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="190"/>
-      <c r="AE18" s="190"/>
-      <c r="AF18" s="190"/>
-      <c r="AG18" s="190"/>
-      <c r="AH18" s="191"/>
-      <c r="AI18" s="187" t="s">
+      <c r="AD18" s="214"/>
+      <c r="AE18" s="214"/>
+      <c r="AF18" s="214"/>
+      <c r="AG18" s="214"/>
+      <c r="AH18" s="215"/>
+      <c r="AI18" s="207" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="173"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="182" t="s">
+      <c r="A19" s="217"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="219"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
+      <c r="J19" s="224" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182" t="s">
+      <c r="K19" s="224"/>
+      <c r="L19" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182" t="s">
+      <c r="M19" s="224"/>
+      <c r="N19" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="182"/>
-      <c r="P19" s="163" t="s">
+      <c r="O19" s="224"/>
+      <c r="P19" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="163" t="s">
+      <c r="Q19" s="225" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="186"/>
-      <c r="S19" s="184"/>
-      <c r="T19" s="180"/>
-      <c r="U19" s="184"/>
-      <c r="V19" s="170" t="s">
+      <c r="R19" s="206"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="212"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="170" t="s">
+      <c r="W19" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="X19" s="170" t="s">
+      <c r="X19" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="Y19" s="170" t="s">
+      <c r="Y19" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="170" t="s">
+      <c r="Z19" s="209" t="s">
         <v>26</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" s="170" t="s">
+      <c r="AC19" s="209" t="s">
         <v>22</v>
       </c>
-      <c r="AD19" s="170" t="s">
+      <c r="AD19" s="209" t="s">
         <v>23</v>
       </c>
-      <c r="AE19" s="170" t="s">
+      <c r="AE19" s="209" t="s">
         <v>24</v>
       </c>
-      <c r="AF19" s="170" t="s">
+      <c r="AF19" s="209" t="s">
         <v>25</v>
       </c>
-      <c r="AG19" s="170" t="s">
+      <c r="AG19" s="209" t="s">
         <v>26</v>
       </c>
       <c r="AH19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AI19" s="188"/>
+      <c r="AI19" s="208"/>
     </row>
     <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="173"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="180"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="220"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="212"/>
       <c r="J20" s="34" t="s">
         <v>8</v>
       </c>
@@ -3444,25 +3517,25 @@
       <c r="O20" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
+      <c r="P20" s="226"/>
+      <c r="Q20" s="226"/>
       <c r="R20" s="21" t="s">
         <v>37</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="171"/>
-      <c r="W20" s="171"/>
-      <c r="X20" s="171"/>
-      <c r="Y20" s="171"/>
-      <c r="Z20" s="171"/>
+      <c r="V20" s="210"/>
+      <c r="W20" s="210"/>
+      <c r="X20" s="210"/>
+      <c r="Y20" s="210"/>
+      <c r="Z20" s="210"/>
       <c r="AA20" s="21"/>
-      <c r="AC20" s="171"/>
-      <c r="AD20" s="171"/>
-      <c r="AE20" s="171"/>
-      <c r="AF20" s="171"/>
-      <c r="AG20" s="171"/>
+      <c r="AC20" s="210"/>
+      <c r="AD20" s="210"/>
+      <c r="AE20" s="210"/>
+      <c r="AF20" s="210"/>
+      <c r="AG20" s="210"/>
       <c r="AH20" s="21" t="s">
         <v>37</v>
       </c>
@@ -6198,102 +6271,102 @@
       <c r="AK46" s="36"/>
     </row>
     <row r="47" spans="1:179" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="207">
+      <c r="A47" s="156">
         <v>27</v>
       </c>
-      <c r="B47" s="208" t="s">
+      <c r="B47" s="157" t="s">
         <v>132</v>
       </c>
-      <c r="C47" s="209" t="s">
+      <c r="C47" s="158" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="210" t="s">
+      <c r="D47" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="E47" s="211">
+      <c r="E47" s="160">
         <v>34.29</v>
       </c>
-      <c r="F47" s="211">
+      <c r="F47" s="160">
         <v>1.802</v>
       </c>
-      <c r="G47" s="212" t="s">
+      <c r="G47" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="210" t="s">
+      <c r="H47" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="210" t="s">
+      <c r="I47" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="213">
+      <c r="J47" s="162">
         <v>45934</v>
       </c>
-      <c r="K47" s="213">
+      <c r="K47" s="162">
         <v>45936</v>
       </c>
-      <c r="L47" s="213">
+      <c r="L47" s="162">
         <v>45937</v>
       </c>
-      <c r="M47" s="213">
+      <c r="M47" s="162">
         <v>45938</v>
       </c>
-      <c r="N47" s="213">
+      <c r="N47" s="162">
         <v>45946</v>
       </c>
-      <c r="O47" s="213">
+      <c r="O47" s="162">
         <v>45951</v>
       </c>
-      <c r="P47" s="213">
+      <c r="P47" s="162">
         <v>45952</v>
       </c>
-      <c r="Q47" s="213">
+      <c r="Q47" s="162">
         <v>45953</v>
       </c>
-      <c r="R47" s="214">
+      <c r="R47" s="163">
         <v>564041.6</v>
       </c>
-      <c r="S47" s="215"/>
-      <c r="T47" s="216">
+      <c r="S47" s="164"/>
+      <c r="T47" s="165">
         <v>45935</v>
       </c>
-      <c r="U47" s="215"/>
-      <c r="V47" s="217">
+      <c r="U47" s="164"/>
+      <c r="V47" s="166">
         <v>1</v>
       </c>
-      <c r="W47" s="217"/>
-      <c r="X47" s="218"/>
-      <c r="Y47" s="217"/>
-      <c r="Z47" s="217"/>
-      <c r="AA47" s="219">
+      <c r="W47" s="166"/>
+      <c r="X47" s="167"/>
+      <c r="Y47" s="166"/>
+      <c r="Z47" s="166"/>
+      <c r="AA47" s="168">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB47" s="220"/>
-      <c r="AC47" s="221">
+      <c r="AB47" s="169"/>
+      <c r="AC47" s="170">
         <f t="shared" si="11"/>
         <v>564041.6</v>
       </c>
-      <c r="AD47" s="221">
+      <c r="AD47" s="170">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="222">
+      <c r="AE47" s="171">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="221">
+      <c r="AF47" s="170">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AG47" s="221">
+      <c r="AG47" s="170">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AH47" s="223">
+      <c r="AH47" s="172">
         <f t="shared" si="6"/>
         <v>564041.6</v>
       </c>
-      <c r="AI47" s="224">
+      <c r="AI47" s="173">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6684,6 +6757,29 @@
   </sheetData>
   <autoFilter ref="A20:AI51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="39">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:Q18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="S18:S19"/>
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="AI18:AI19"/>
@@ -6700,29 +6796,6 @@
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="Y19:Y20"/>
     <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AC19:AC20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:Q18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B20 B44:B1048576">
@@ -6823,10 +6896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32678F0-2B5B-4A2D-A796-1BCE3C3C0190}">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6841,21 +6914,22 @@
     <col min="8" max="8" width="20.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="10.7265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.453125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.81640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.1796875" style="1" customWidth="1"/>
-    <col min="17" max="21" width="8.7265625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.6328125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="3.1796875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="14.26953125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1796875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="12.6328125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="13.08984375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.54296875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.453125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="1"/>
+    <col min="13" max="16" width="14.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="13.81640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="3.1796875" style="1" customWidth="1"/>
+    <col min="21" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.6328125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.1796875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="14.26953125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1796875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="12.6328125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.08984375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="13.54296875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.453125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -6939,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="G9" s="44">
-        <f>M69</f>
+        <f>Q69</f>
         <v>27566250.979999986</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -6960,7 +7034,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="15">
-        <f>Q69</f>
+        <f>U69</f>
         <v>4</v>
       </c>
       <c r="F11" s="40">
@@ -6968,7 +7042,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="G11" s="11">
-        <f>X69</f>
+        <f>AB69</f>
         <v>2420223.38</v>
       </c>
       <c r="H11" s="40">
@@ -6982,7 +7056,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="15">
-        <f>R69</f>
+        <f>V69</f>
         <v>1</v>
       </c>
       <c r="F12" s="40">
@@ -6990,7 +7064,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="G12" s="11">
-        <f>Y69</f>
+        <f>AC69</f>
         <v>395590.39999999997</v>
       </c>
       <c r="H12" s="40">
@@ -7004,7 +7078,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="15">
-        <f>S69</f>
+        <f>W69</f>
         <v>0</v>
       </c>
       <c r="F13" s="40">
@@ -7012,7 +7086,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>Z69</f>
+        <f>AD69</f>
         <v>0</v>
       </c>
       <c r="H13" s="40">
@@ -7026,7 +7100,7 @@
         <v>25</v>
       </c>
       <c r="E14" s="15">
-        <f>T69</f>
+        <f>X69</f>
         <v>0</v>
       </c>
       <c r="F14" s="40">
@@ -7034,7 +7108,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>AA69</f>
+        <f>AE69</f>
         <v>0</v>
       </c>
       <c r="H14" s="40">
@@ -7048,7 +7122,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="16">
-        <f>U69</f>
+        <f>Y69</f>
         <v>0</v>
       </c>
       <c r="F15" s="40">
@@ -7056,7 +7130,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="14">
-        <f>AB69</f>
+        <f>AF69</f>
         <v>0</v>
       </c>
       <c r="H15" s="40">
@@ -7086,175 +7160,193 @@
         <v>0.10214714296996513</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:30" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="172" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="177" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="177" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="177" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18" s="174" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="181" t="s">
+    <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="250"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="255"/>
+      <c r="F18" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="181"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
       <c r="K18" s="65"/>
       <c r="L18" s="137"/>
-      <c r="M18" s="203" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="144"/>
-      <c r="O18" s="205" t="s">
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="198" t="s">
+      <c r="T18" s="71"/>
+      <c r="U18" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="200"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="198" t="s">
+      <c r="V18" s="238"/>
+      <c r="W18" s="238"/>
+      <c r="X18" s="238"/>
+      <c r="Y18" s="238"/>
+      <c r="Z18" s="239"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="237" t="s">
         <v>28</v>
       </c>
-      <c r="Y18" s="199"/>
-      <c r="Z18" s="199"/>
-      <c r="AA18" s="199"/>
-      <c r="AB18" s="199"/>
-      <c r="AC18" s="200"/>
-      <c r="AD18" s="195" t="s">
+      <c r="AC18" s="238"/>
+      <c r="AD18" s="238"/>
+      <c r="AE18" s="238"/>
+      <c r="AF18" s="238"/>
+      <c r="AG18" s="239"/>
+      <c r="AH18" s="240" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="173"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="192" t="s">
+    <row r="19" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="251"/>
+      <c r="B19" s="253"/>
+      <c r="C19" s="253"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="254"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="242" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="243"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="257"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="244"/>
+      <c r="O19" s="244"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="234"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="236"/>
+      <c r="U19" s="232" t="s">
+        <v>22</v>
+      </c>
+      <c r="V19" s="232" t="s">
+        <v>23</v>
+      </c>
+      <c r="W19" s="232" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="232" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" s="232" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z19" s="140" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB19" s="232" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="232" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD19" s="232" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE19" s="232" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF19" s="232" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG19" s="140" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH19" s="241"/>
+    </row>
+    <row r="20" spans="1:34" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="250" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="252" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="252" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="252" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="255" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="256" t="s">
         <v>203</v>
       </c>
-      <c r="G19" s="193" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="194"/>
-      <c r="I19" s="192" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="192" t="s">
-        <v>50</v>
-      </c>
-      <c r="K19" s="201" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="201" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="204"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="206"/>
-      <c r="Q19" s="197" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="U19" s="197" t="s">
-        <v>26</v>
-      </c>
-      <c r="V19" s="140" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" s="197" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y19" s="197" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z19" s="197" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA19" s="197" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB19" s="197" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC19" s="140" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD19" s="196"/>
-    </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="173"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="179"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="192"/>
       <c r="G20" s="34" t="s">
         <v>201</v>
       </c>
       <c r="H20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="202"/>
-      <c r="L20" s="202"/>
-      <c r="M20" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="N20" s="145"/>
-      <c r="O20" s="141" t="s">
+      <c r="I20" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="256" t="s">
+        <v>50</v>
+      </c>
+      <c r="K20" s="257" t="s">
+        <v>66</v>
+      </c>
+      <c r="L20" s="257" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" s="245" t="s">
+        <v>212</v>
+      </c>
+      <c r="N20" s="245" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" s="245" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" s="245" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="R20" s="145"/>
+      <c r="S20" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="176"/>
-      <c r="R20" s="176"/>
-      <c r="S20" s="176"/>
-      <c r="T20" s="176"/>
-      <c r="U20" s="176"/>
-      <c r="V20" s="119"/>
-      <c r="X20" s="176"/>
-      <c r="Y20" s="176"/>
-      <c r="Z20" s="176"/>
-      <c r="AA20" s="176"/>
-      <c r="AB20" s="176"/>
-      <c r="AC20" s="119" t="s">
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="119"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="220"/>
+      <c r="AF20" s="220"/>
+      <c r="AG20" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="AD20" s="120" t="s">
+      <c r="AH20" s="120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="74">
         <v>1</v>
       </c>
@@ -7295,53 +7387,57 @@
       <c r="L21" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M21" s="112">
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="111"/>
+      <c r="Q21" s="112">
         <f>D21*10940</f>
         <v>773950.3</v>
       </c>
-      <c r="N21" s="145"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="88"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
+      <c r="R21" s="145"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="88"/>
       <c r="U21" s="147"/>
-      <c r="V21" s="147">
-        <f>SUM(Q21:U21)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="148"/>
-      <c r="X21" s="46">
-        <f>M21*Q21</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="46">
-        <f>M21*R21</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="46">
-        <f>M21*S21</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="46">
-        <f>M21*T21</f>
-        <v>0</v>
-      </c>
+      <c r="V21" s="147"/>
+      <c r="W21" s="147"/>
+      <c r="X21" s="147"/>
+      <c r="Y21" s="147"/>
+      <c r="Z21" s="147">
+        <f>SUM(U21:Y21)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="148"/>
       <c r="AB21" s="46">
-        <f>M21*U21</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="47">
-        <f>SUM(X21:AB21)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="73">
-        <f>M21-AC21</f>
+        <f>Q21*U21</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="46">
+        <f>Q21*V21</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="46">
+        <f>Q21*W21</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="46">
+        <f>Q21*X21</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="46">
+        <f>Q21*Y21</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="47">
+        <f>SUM(AB21:AF21)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="73">
+        <f>Q21-AG21</f>
         <v>773950.3</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="74">
         <v>2</v>
       </c>
@@ -7383,53 +7479,57 @@
       <c r="L22" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M22" s="112">
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="111"/>
+      <c r="P22" s="111"/>
+      <c r="Q22" s="112">
         <f>D22*10940</f>
         <v>499925.18000000005</v>
       </c>
-      <c r="N22" s="145"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="88"/>
-      <c r="Q22" s="149"/>
-      <c r="R22" s="149"/>
-      <c r="S22" s="149"/>
-      <c r="T22" s="149"/>
+      <c r="R22" s="145"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="88"/>
       <c r="U22" s="149"/>
-      <c r="V22" s="147">
-        <f t="shared" ref="V22:V68" si="4">SUM(Q22:U22)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="148"/>
-      <c r="X22" s="46">
-        <f t="shared" ref="X22:X68" si="5">M22*Q22</f>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="46">
-        <f t="shared" ref="Y22:Y68" si="6">M22*R22</f>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="46">
-        <f t="shared" ref="Z22:Z68" si="7">M22*S22</f>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="46">
-        <f t="shared" ref="AA22:AA68" si="8">M22*T22</f>
-        <v>0</v>
-      </c>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="147">
+        <f t="shared" ref="Z22:Z68" si="4">SUM(U22:Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="148"/>
       <c r="AB22" s="46">
-        <f t="shared" ref="AB22:AB68" si="9">M22*U22</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="47">
-        <f t="shared" ref="AC22:AC68" si="10">SUM(X22:AB22)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="73">
-        <f t="shared" ref="AD22:AD68" si="11">M22-AC22</f>
+        <f t="shared" ref="AB22:AB68" si="5">Q22*U22</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="46">
+        <f t="shared" ref="AC22:AC68" si="6">Q22*V22</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="46">
+        <f t="shared" ref="AD22:AD68" si="7">Q22*W22</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="46">
+        <f t="shared" ref="AE22:AE68" si="8">Q22*X22</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="46">
+        <f t="shared" ref="AF22:AF68" si="9">Q22*Y22</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="47">
+        <f t="shared" ref="AG22:AG68" si="10">SUM(AB22:AF22)</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="73">
+        <f t="shared" ref="AH22:AH68" si="11">Q22-AG22</f>
         <v>499925.18000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="74">
         <v>3</v>
       </c>
@@ -7471,53 +7571,57 @@
       <c r="L23" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="112">
-        <f t="shared" ref="M23:M26" si="13">D23*10940</f>
+      <c r="M23" s="111"/>
+      <c r="N23" s="111"/>
+      <c r="O23" s="111"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="112">
+        <f t="shared" ref="Q23:Q26" si="13">D23*10940</f>
         <v>683137.36</v>
       </c>
-      <c r="N23" s="145"/>
-      <c r="O23" s="154"/>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="150"/>
-      <c r="R23" s="150"/>
-      <c r="S23" s="150"/>
-      <c r="T23" s="150"/>
+      <c r="R23" s="145"/>
+      <c r="S23" s="154"/>
+      <c r="T23" s="88"/>
       <c r="U23" s="150"/>
-      <c r="V23" s="147">
+      <c r="V23" s="150"/>
+      <c r="W23" s="150"/>
+      <c r="X23" s="150"/>
+      <c r="Y23" s="150"/>
+      <c r="Z23" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W23" s="148"/>
-      <c r="X23" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="46">
+      <c r="AA23" s="148"/>
+      <c r="AB23" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="AD23" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="46">
+      <c r="AE23" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="46">
+      <c r="AF23" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="47">
+      <c r="AG23" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="73">
+      <c r="AH23" s="73">
         <f t="shared" si="11"/>
         <v>683137.36</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="74">
         <v>4</v>
       </c>
@@ -7559,53 +7663,57 @@
       <c r="L24" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M24" s="112">
+      <c r="M24" s="111"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="111"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="112">
         <f t="shared" si="13"/>
         <v>720650.62</v>
       </c>
-      <c r="N24" s="145"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="88"/>
-      <c r="Q24" s="150"/>
-      <c r="R24" s="150"/>
-      <c r="S24" s="150"/>
-      <c r="T24" s="150"/>
+      <c r="R24" s="145"/>
+      <c r="S24" s="154"/>
+      <c r="T24" s="88"/>
       <c r="U24" s="150"/>
-      <c r="V24" s="147">
+      <c r="V24" s="150"/>
+      <c r="W24" s="150"/>
+      <c r="X24" s="150"/>
+      <c r="Y24" s="150"/>
+      <c r="Z24" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W24" s="148"/>
-      <c r="X24" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="46">
+      <c r="AA24" s="148"/>
+      <c r="AB24" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="46">
+      <c r="AD24" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="46">
+      <c r="AE24" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB24" s="46">
+      <c r="AF24" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="47">
+      <c r="AG24" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="73">
+      <c r="AH24" s="73">
         <f t="shared" si="11"/>
         <v>720650.62</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="74">
         <v>5</v>
       </c>
@@ -7646,53 +7754,57 @@
       <c r="L25" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M25" s="112">
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="112">
         <f t="shared" si="13"/>
         <v>843222.38</v>
       </c>
-      <c r="N25" s="145"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="88"/>
-      <c r="Q25" s="150"/>
-      <c r="R25" s="150"/>
-      <c r="S25" s="150"/>
-      <c r="T25" s="150"/>
+      <c r="R25" s="145"/>
+      <c r="S25" s="154"/>
+      <c r="T25" s="88"/>
       <c r="U25" s="150"/>
-      <c r="V25" s="147">
+      <c r="V25" s="150"/>
+      <c r="W25" s="150"/>
+      <c r="X25" s="150"/>
+      <c r="Y25" s="150"/>
+      <c r="Z25" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25" s="148"/>
-      <c r="X25" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="46">
+      <c r="AA25" s="148"/>
+      <c r="AB25" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="46">
+      <c r="AD25" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="46">
+      <c r="AE25" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB25" s="46">
+      <c r="AF25" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC25" s="47">
+      <c r="AG25" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="73">
+      <c r="AH25" s="73">
         <f t="shared" si="11"/>
         <v>843222.38</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="74">
         <v>6</v>
       </c>
@@ -7734,53 +7846,57 @@
       <c r="L26" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M26" s="112">
+      <c r="M26" s="111"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="111"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="112">
         <f t="shared" si="13"/>
         <v>773950.3</v>
       </c>
-      <c r="N26" s="145"/>
-      <c r="O26" s="154"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="150"/>
-      <c r="R26" s="150"/>
-      <c r="S26" s="150"/>
-      <c r="T26" s="150"/>
+      <c r="R26" s="145"/>
+      <c r="S26" s="154"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="150"/>
-      <c r="V26" s="147">
+      <c r="V26" s="150"/>
+      <c r="W26" s="150"/>
+      <c r="X26" s="150"/>
+      <c r="Y26" s="150"/>
+      <c r="Z26" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W26" s="148"/>
-      <c r="X26" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="46">
+      <c r="AA26" s="148"/>
+      <c r="AB26" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z26" s="46">
+      <c r="AD26" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA26" s="46">
+      <c r="AE26" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB26" s="46">
+      <c r="AF26" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="47">
+      <c r="AG26" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD26" s="73">
+      <c r="AH26" s="73">
         <f t="shared" si="11"/>
         <v>773950.3</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="74">
         <v>7</v>
       </c>
@@ -7822,53 +7938,57 @@
       <c r="L27" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M27" s="112">
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="112">
         <f>D27*10940</f>
         <v>1063017.9200000002</v>
       </c>
-      <c r="N27" s="145"/>
-      <c r="O27" s="154"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="150"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="150"/>
-      <c r="T27" s="150"/>
+      <c r="R27" s="145"/>
+      <c r="S27" s="154"/>
+      <c r="T27" s="88"/>
       <c r="U27" s="150"/>
-      <c r="V27" s="147">
+      <c r="V27" s="150"/>
+      <c r="W27" s="150"/>
+      <c r="X27" s="150"/>
+      <c r="Y27" s="150"/>
+      <c r="Z27" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W27" s="148"/>
-      <c r="X27" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="46">
+      <c r="AA27" s="148"/>
+      <c r="AB27" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z27" s="46">
+      <c r="AD27" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA27" s="46">
+      <c r="AE27" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB27" s="46">
+      <c r="AF27" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC27" s="47">
+      <c r="AG27" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD27" s="73">
+      <c r="AH27" s="73">
         <f t="shared" si="11"/>
         <v>1063017.9200000002</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:34" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="74">
         <v>8</v>
       </c>
@@ -7909,53 +8029,57 @@
       <c r="L28" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M28" s="112">
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="112">
         <f>D28*10940</f>
         <v>395590.39999999997</v>
       </c>
-      <c r="N28" s="145"/>
-      <c r="O28" s="154"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="150"/>
-      <c r="R28" s="150"/>
-      <c r="S28" s="150"/>
-      <c r="T28" s="150"/>
+      <c r="R28" s="145"/>
+      <c r="S28" s="154"/>
+      <c r="T28" s="88"/>
       <c r="U28" s="150"/>
-      <c r="V28" s="147">
+      <c r="V28" s="150"/>
+      <c r="W28" s="150"/>
+      <c r="X28" s="150"/>
+      <c r="Y28" s="150"/>
+      <c r="Z28" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W28" s="148"/>
-      <c r="X28" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="46">
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z28" s="46">
+      <c r="AD28" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA28" s="46">
+      <c r="AE28" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="46">
+      <c r="AF28" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC28" s="47">
+      <c r="AG28" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD28" s="73">
+      <c r="AH28" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="74">
         <v>9</v>
       </c>
@@ -7997,53 +8121,57 @@
       <c r="L29" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M29" s="112">
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="112">
         <f>D29*10940</f>
         <v>414965.13999999996</v>
       </c>
-      <c r="N29" s="145"/>
-      <c r="O29" s="154"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="150"/>
-      <c r="R29" s="150"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="150"/>
+      <c r="R29" s="145"/>
+      <c r="S29" s="154"/>
+      <c r="T29" s="88"/>
       <c r="U29" s="150"/>
-      <c r="V29" s="147">
+      <c r="V29" s="150"/>
+      <c r="W29" s="150"/>
+      <c r="X29" s="150"/>
+      <c r="Y29" s="150"/>
+      <c r="Z29" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W29" s="148"/>
-      <c r="X29" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="46">
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z29" s="46">
+      <c r="AD29" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA29" s="46">
+      <c r="AE29" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB29" s="46">
+      <c r="AF29" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="47">
+      <c r="AG29" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="73">
+      <c r="AH29" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="74">
         <v>10</v>
       </c>
@@ -8085,53 +8213,57 @@
       <c r="L30" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M30" s="112">
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="112">
         <f>D30*10940</f>
         <v>711406.32000000007</v>
       </c>
-      <c r="N30" s="145"/>
-      <c r="O30" s="154"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="150"/>
-      <c r="R30" s="150"/>
-      <c r="S30" s="150"/>
-      <c r="T30" s="150"/>
+      <c r="R30" s="145"/>
+      <c r="S30" s="154"/>
+      <c r="T30" s="88"/>
       <c r="U30" s="150"/>
-      <c r="V30" s="147">
+      <c r="V30" s="150"/>
+      <c r="W30" s="150"/>
+      <c r="X30" s="150"/>
+      <c r="Y30" s="150"/>
+      <c r="Z30" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W30" s="148"/>
-      <c r="X30" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="46">
+      <c r="AA30" s="148"/>
+      <c r="AB30" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z30" s="46">
+      <c r="AD30" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA30" s="46">
+      <c r="AE30" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB30" s="46">
+      <c r="AF30" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC30" s="47">
+      <c r="AG30" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD30" s="73">
+      <c r="AH30" s="73">
         <f t="shared" si="11"/>
         <v>711406.32000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="74">
         <v>11</v>
       </c>
@@ -8172,53 +8304,57 @@
       <c r="L31" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M31" s="112">
-        <f t="shared" ref="M31:M46" si="22">D31*10940</f>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="112">
+        <f t="shared" ref="Q31:Q46" si="22">D31*10940</f>
         <v>414965.13999999996</v>
       </c>
-      <c r="N31" s="145"/>
-      <c r="O31" s="154"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="150"/>
-      <c r="R31" s="150"/>
-      <c r="S31" s="150"/>
-      <c r="T31" s="150"/>
+      <c r="R31" s="145"/>
+      <c r="S31" s="154"/>
+      <c r="T31" s="88"/>
       <c r="U31" s="150"/>
-      <c r="V31" s="147">
+      <c r="V31" s="150"/>
+      <c r="W31" s="150"/>
+      <c r="X31" s="150"/>
+      <c r="Y31" s="150"/>
+      <c r="Z31" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W31" s="148"/>
-      <c r="X31" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="46">
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z31" s="46">
+      <c r="AD31" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA31" s="46">
+      <c r="AE31" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="46">
+      <c r="AF31" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC31" s="47">
+      <c r="AG31" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD31" s="73">
+      <c r="AH31" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="74">
         <v>12</v>
       </c>
@@ -8260,53 +8396,57 @@
       <c r="L32" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M32" s="112">
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="112">
         <f t="shared" si="22"/>
         <v>801300.3</v>
       </c>
-      <c r="N32" s="145"/>
-      <c r="O32" s="154"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="150"/>
-      <c r="S32" s="150"/>
-      <c r="T32" s="150"/>
+      <c r="R32" s="145"/>
+      <c r="S32" s="154"/>
+      <c r="T32" s="88"/>
       <c r="U32" s="150"/>
-      <c r="V32" s="147">
+      <c r="V32" s="150"/>
+      <c r="W32" s="150"/>
+      <c r="X32" s="150"/>
+      <c r="Y32" s="150"/>
+      <c r="Z32" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W32" s="148"/>
-      <c r="X32" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="46">
+      <c r="AA32" s="148"/>
+      <c r="AB32" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z32" s="46">
+      <c r="AD32" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA32" s="46">
+      <c r="AE32" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB32" s="46">
+      <c r="AF32" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="47">
+      <c r="AG32" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD32" s="73">
+      <c r="AH32" s="73">
         <f t="shared" si="11"/>
         <v>801300.3</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="74">
         <v>13</v>
       </c>
@@ -8348,53 +8488,57 @@
       <c r="L33" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="112">
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="112">
         <f t="shared" si="22"/>
         <v>389485.87999999995</v>
       </c>
-      <c r="N33" s="145"/>
-      <c r="O33" s="154"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="150"/>
-      <c r="R33" s="150"/>
-      <c r="S33" s="150"/>
-      <c r="T33" s="150"/>
+      <c r="R33" s="145"/>
+      <c r="S33" s="154"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="150"/>
-      <c r="V33" s="147">
+      <c r="V33" s="150"/>
+      <c r="W33" s="150"/>
+      <c r="X33" s="150"/>
+      <c r="Y33" s="150"/>
+      <c r="Z33" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W33" s="148"/>
-      <c r="X33" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="46">
+      <c r="AA33" s="148"/>
+      <c r="AB33" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z33" s="46">
+      <c r="AD33" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA33" s="46">
+      <c r="AE33" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="46">
+      <c r="AF33" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC33" s="47">
+      <c r="AG33" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD33" s="73">
+      <c r="AH33" s="73">
         <f t="shared" si="11"/>
         <v>389485.87999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="74">
         <v>14</v>
       </c>
@@ -8436,53 +8580,57 @@
       <c r="L34" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M34" s="112">
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="112">
         <f t="shared" si="22"/>
         <v>895209.25999999989</v>
       </c>
-      <c r="N34" s="145"/>
-      <c r="O34" s="154"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="150"/>
-      <c r="R34" s="150"/>
-      <c r="S34" s="150"/>
-      <c r="T34" s="150"/>
+      <c r="R34" s="145"/>
+      <c r="S34" s="154"/>
+      <c r="T34" s="88"/>
       <c r="U34" s="150"/>
-      <c r="V34" s="147">
+      <c r="V34" s="150"/>
+      <c r="W34" s="150"/>
+      <c r="X34" s="150"/>
+      <c r="Y34" s="150"/>
+      <c r="Z34" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W34" s="148"/>
-      <c r="X34" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="46">
+      <c r="AA34" s="148"/>
+      <c r="AB34" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z34" s="46">
+      <c r="AD34" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA34" s="46">
+      <c r="AE34" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="46">
+      <c r="AF34" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC34" s="47">
+      <c r="AG34" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD34" s="73">
+      <c r="AH34" s="73">
         <f t="shared" si="11"/>
         <v>895209.25999999989</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="74">
         <v>15</v>
       </c>
@@ -8523,53 +8671,57 @@
       <c r="L35" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="117">
+      <c r="M35" s="246"/>
+      <c r="N35" s="246"/>
+      <c r="O35" s="246"/>
+      <c r="P35" s="246"/>
+      <c r="Q35" s="117">
         <f t="shared" si="22"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N35" s="145"/>
-      <c r="O35" s="154"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="150"/>
-      <c r="R35" s="150"/>
-      <c r="S35" s="150"/>
-      <c r="T35" s="150"/>
+      <c r="R35" s="145"/>
+      <c r="S35" s="154"/>
+      <c r="T35" s="88"/>
       <c r="U35" s="150"/>
-      <c r="V35" s="147">
+      <c r="V35" s="150"/>
+      <c r="W35" s="150"/>
+      <c r="X35" s="150"/>
+      <c r="Y35" s="150"/>
+      <c r="Z35" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W35" s="148"/>
-      <c r="X35" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="46">
+      <c r="AA35" s="148"/>
+      <c r="AB35" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z35" s="46">
+      <c r="AD35" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA35" s="46">
+      <c r="AE35" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="46">
+      <c r="AF35" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC35" s="47">
+      <c r="AG35" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD35" s="73">
+      <c r="AH35" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="74">
         <v>16</v>
       </c>
@@ -8611,53 +8763,57 @@
       <c r="L36" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="117">
+      <c r="M36" s="246"/>
+      <c r="N36" s="246"/>
+      <c r="O36" s="246"/>
+      <c r="P36" s="246"/>
+      <c r="Q36" s="117">
         <f t="shared" si="22"/>
         <v>1063017.9200000002</v>
       </c>
-      <c r="N36" s="145"/>
-      <c r="O36" s="154"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="150"/>
-      <c r="R36" s="150"/>
-      <c r="S36" s="150"/>
-      <c r="T36" s="150"/>
+      <c r="R36" s="145"/>
+      <c r="S36" s="154"/>
+      <c r="T36" s="88"/>
       <c r="U36" s="150"/>
-      <c r="V36" s="147">
+      <c r="V36" s="150"/>
+      <c r="W36" s="150"/>
+      <c r="X36" s="150"/>
+      <c r="Y36" s="150"/>
+      <c r="Z36" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W36" s="148"/>
-      <c r="X36" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="46">
+      <c r="AA36" s="148"/>
+      <c r="AB36" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC36" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z36" s="46">
+      <c r="AD36" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA36" s="46">
+      <c r="AE36" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="46">
+      <c r="AF36" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC36" s="47">
+      <c r="AG36" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD36" s="73">
+      <c r="AH36" s="73">
         <f t="shared" si="11"/>
         <v>1063017.9200000002</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="74">
         <v>17</v>
       </c>
@@ -8699,144 +8855,152 @@
       <c r="L37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="117">
+      <c r="M37" s="246"/>
+      <c r="N37" s="246"/>
+      <c r="O37" s="246"/>
+      <c r="P37" s="246"/>
+      <c r="Q37" s="117">
         <f t="shared" si="22"/>
         <v>1366953</v>
       </c>
-      <c r="N37" s="145"/>
-      <c r="O37" s="154"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="150"/>
-      <c r="R37" s="150"/>
-      <c r="S37" s="150"/>
-      <c r="T37" s="150"/>
+      <c r="R37" s="145"/>
+      <c r="S37" s="154"/>
+      <c r="T37" s="88"/>
       <c r="U37" s="150"/>
-      <c r="V37" s="147">
+      <c r="V37" s="150"/>
+      <c r="W37" s="150"/>
+      <c r="X37" s="150"/>
+      <c r="Y37" s="150"/>
+      <c r="Z37" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W37" s="148"/>
-      <c r="X37" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="46">
+      <c r="AA37" s="148"/>
+      <c r="AB37" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z37" s="46">
+      <c r="AD37" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA37" s="46">
+      <c r="AE37" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="46">
+      <c r="AF37" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="47">
+      <c r="AG37" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="73">
+      <c r="AH37" s="73">
         <f t="shared" si="11"/>
         <v>1366953</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="225">
+    <row r="38" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="174">
         <v>18</v>
       </c>
-      <c r="B38" s="226" t="s">
+      <c r="B38" s="175" t="s">
         <v>189</v>
       </c>
-      <c r="C38" s="226" t="s">
+      <c r="C38" s="175" t="s">
         <v>195</v>
       </c>
-      <c r="D38" s="227">
+      <c r="D38" s="176">
         <v>87.021000000000001</v>
       </c>
-      <c r="E38" s="228" t="s">
+      <c r="E38" s="177" t="s">
         <v>190</v>
       </c>
-      <c r="F38" s="229">
+      <c r="F38" s="178">
         <v>45931</v>
       </c>
-      <c r="G38" s="229">
+      <c r="G38" s="178">
         <f>F38+1</f>
         <v>45932</v>
       </c>
-      <c r="H38" s="229">
+      <c r="H38" s="178">
         <f>G38+6</f>
         <v>45938</v>
       </c>
-      <c r="I38" s="229">
+      <c r="I38" s="178">
         <f t="shared" si="25"/>
         <v>45939</v>
       </c>
-      <c r="J38" s="229">
+      <c r="J38" s="178">
         <f>I38+2</f>
         <v>45941</v>
       </c>
-      <c r="K38" s="230" t="s">
+      <c r="K38" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="L38" s="230" t="s">
+      <c r="L38" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="M38" s="231">
+      <c r="M38" s="247"/>
+      <c r="N38" s="247"/>
+      <c r="O38" s="247"/>
+      <c r="P38" s="247"/>
+      <c r="Q38" s="180">
         <f t="shared" si="22"/>
         <v>952009.74</v>
       </c>
-      <c r="N38" s="232"/>
-      <c r="O38" s="233">
+      <c r="R38" s="181"/>
+      <c r="S38" s="182">
         <v>45934</v>
       </c>
-      <c r="P38" s="234"/>
-      <c r="Q38" s="235">
+      <c r="T38" s="183"/>
+      <c r="U38" s="184">
         <v>1</v>
       </c>
-      <c r="R38" s="235"/>
-      <c r="S38" s="235"/>
-      <c r="T38" s="235"/>
-      <c r="U38" s="235"/>
-      <c r="V38" s="236">
+      <c r="V38" s="184"/>
+      <c r="W38" s="184"/>
+      <c r="X38" s="184"/>
+      <c r="Y38" s="184"/>
+      <c r="Z38" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W38" s="237"/>
-      <c r="X38" s="238">
+      <c r="AA38" s="186"/>
+      <c r="AB38" s="187">
         <f t="shared" si="5"/>
         <v>952009.74</v>
       </c>
-      <c r="Y38" s="238">
+      <c r="AC38" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="238">
+      <c r="AD38" s="187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="238">
+      <c r="AE38" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="238">
+      <c r="AF38" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="239">
+      <c r="AG38" s="188">
         <f t="shared" si="10"/>
         <v>952009.74</v>
       </c>
-      <c r="AD38" s="240">
+      <c r="AH38" s="189">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="74">
         <v>19</v>
       </c>
@@ -8878,53 +9042,57 @@
       <c r="L39" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M39" s="117">
+      <c r="M39" s="246"/>
+      <c r="N39" s="246"/>
+      <c r="O39" s="246"/>
+      <c r="P39" s="246"/>
+      <c r="Q39" s="117">
         <f t="shared" si="22"/>
         <v>735846.28</v>
       </c>
-      <c r="N39" s="145"/>
-      <c r="O39" s="154"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="150"/>
-      <c r="R39" s="150"/>
-      <c r="S39" s="150"/>
-      <c r="T39" s="150"/>
+      <c r="R39" s="145"/>
+      <c r="S39" s="154"/>
+      <c r="T39" s="88"/>
       <c r="U39" s="150"/>
-      <c r="V39" s="147">
+      <c r="V39" s="150"/>
+      <c r="W39" s="150"/>
+      <c r="X39" s="150"/>
+      <c r="Y39" s="150"/>
+      <c r="Z39" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W39" s="148"/>
-      <c r="X39" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="46">
+      <c r="AA39" s="148"/>
+      <c r="AB39" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC39" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="46">
+      <c r="AD39" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="46">
+      <c r="AE39" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="46">
+      <c r="AF39" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="47">
+      <c r="AG39" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="73">
+      <c r="AH39" s="73">
         <f t="shared" si="11"/>
         <v>735846.28</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="74">
         <v>20</v>
       </c>
@@ -8966,52 +9134,56 @@
       <c r="L40" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M40" s="117">
+      <c r="M40" s="246"/>
+      <c r="N40" s="246"/>
+      <c r="O40" s="246"/>
+      <c r="P40" s="246"/>
+      <c r="Q40" s="117">
         <v>414965.13999999996</v>
       </c>
-      <c r="N40" s="145"/>
-      <c r="O40" s="154"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="150"/>
-      <c r="R40" s="150"/>
-      <c r="S40" s="150"/>
-      <c r="T40" s="150"/>
+      <c r="R40" s="145"/>
+      <c r="S40" s="154"/>
+      <c r="T40" s="88"/>
       <c r="U40" s="150"/>
-      <c r="V40" s="147">
+      <c r="V40" s="150"/>
+      <c r="W40" s="150"/>
+      <c r="X40" s="150"/>
+      <c r="Y40" s="150"/>
+      <c r="Z40" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W40" s="148"/>
-      <c r="X40" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="46">
+      <c r="AA40" s="148"/>
+      <c r="AB40" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z40" s="46">
+      <c r="AD40" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA40" s="46">
+      <c r="AE40" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="46">
+      <c r="AF40" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC40" s="47">
+      <c r="AG40" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD40" s="73">
+      <c r="AH40" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="74">
         <v>21</v>
       </c>
@@ -9053,143 +9225,151 @@
       <c r="L41" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="117">
+      <c r="M41" s="246"/>
+      <c r="N41" s="246"/>
+      <c r="O41" s="246"/>
+      <c r="P41" s="246"/>
+      <c r="Q41" s="117">
         <v>414965.13999999996</v>
       </c>
-      <c r="N41" s="145"/>
-      <c r="O41" s="154"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="150"/>
-      <c r="R41" s="150"/>
-      <c r="S41" s="150"/>
-      <c r="T41" s="150"/>
+      <c r="R41" s="145"/>
+      <c r="S41" s="154"/>
+      <c r="T41" s="88"/>
       <c r="U41" s="150"/>
-      <c r="V41" s="147">
+      <c r="V41" s="150"/>
+      <c r="W41" s="150"/>
+      <c r="X41" s="150"/>
+      <c r="Y41" s="150"/>
+      <c r="Z41" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W41" s="148"/>
-      <c r="X41" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="46">
+      <c r="AA41" s="148"/>
+      <c r="AB41" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC41" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z41" s="46">
+      <c r="AD41" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="46">
+      <c r="AE41" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="46">
+      <c r="AF41" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC41" s="47">
+      <c r="AG41" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD41" s="73">
+      <c r="AH41" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="225">
+    <row r="42" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="174">
         <v>22</v>
       </c>
-      <c r="B42" s="241" t="s">
+      <c r="B42" s="190" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="241" t="s">
+      <c r="C42" s="190" t="s">
         <v>107</v>
       </c>
-      <c r="D42" s="242">
+      <c r="D42" s="191">
         <v>62.444000000000003</v>
       </c>
-      <c r="E42" s="243" t="s">
+      <c r="E42" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="229">
+      <c r="F42" s="178">
         <v>45931</v>
       </c>
-      <c r="G42" s="229">
+      <c r="G42" s="178">
         <f>F42+1</f>
         <v>45932</v>
       </c>
-      <c r="H42" s="229">
+      <c r="H42" s="178">
         <f>G42+10</f>
         <v>45942</v>
       </c>
-      <c r="I42" s="229">
+      <c r="I42" s="178">
         <f t="shared" ref="I42:I44" si="30">H42+1</f>
         <v>45943</v>
       </c>
-      <c r="J42" s="229">
+      <c r="J42" s="178">
         <f>I42+2</f>
         <v>45945</v>
       </c>
-      <c r="K42" s="230" t="s">
+      <c r="K42" s="179" t="s">
         <v>65</v>
       </c>
-      <c r="L42" s="230" t="s">
+      <c r="L42" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="M42" s="244">
-        <f t="shared" ref="M42" si="31">D42*10940</f>
+      <c r="M42" s="179"/>
+      <c r="N42" s="179"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="179"/>
+      <c r="Q42" s="193">
+        <f t="shared" ref="Q42" si="31">D42*10940</f>
         <v>683137.36</v>
       </c>
-      <c r="N42" s="232"/>
-      <c r="O42" s="233">
+      <c r="R42" s="181"/>
+      <c r="S42" s="182">
         <v>45934</v>
       </c>
-      <c r="P42" s="234"/>
-      <c r="Q42" s="235">
+      <c r="T42" s="183"/>
+      <c r="U42" s="184">
         <v>1</v>
       </c>
-      <c r="R42" s="235"/>
-      <c r="S42" s="235"/>
-      <c r="T42" s="235"/>
-      <c r="U42" s="235"/>
-      <c r="V42" s="236">
+      <c r="V42" s="184"/>
+      <c r="W42" s="184"/>
+      <c r="X42" s="184"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W42" s="237"/>
-      <c r="X42" s="238">
+      <c r="AA42" s="186"/>
+      <c r="AB42" s="187">
         <f t="shared" si="5"/>
         <v>683137.36</v>
       </c>
-      <c r="Y42" s="238">
+      <c r="AC42" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z42" s="238">
+      <c r="AD42" s="187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA42" s="238">
+      <c r="AE42" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB42" s="238">
+      <c r="AF42" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC42" s="239">
+      <c r="AG42" s="188">
         <f t="shared" si="10"/>
         <v>683137.36</v>
       </c>
-      <c r="AD42" s="240">
+      <c r="AH42" s="189">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="74">
         <v>23</v>
       </c>
@@ -9231,52 +9411,56 @@
       <c r="L43" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="117">
+      <c r="M43" s="248"/>
+      <c r="N43" s="248"/>
+      <c r="O43" s="248"/>
+      <c r="P43" s="248"/>
+      <c r="Q43" s="117">
         <v>823552.26</v>
       </c>
-      <c r="N43" s="145"/>
-      <c r="O43" s="154"/>
-      <c r="P43" s="88"/>
-      <c r="Q43" s="150"/>
-      <c r="R43" s="150"/>
-      <c r="S43" s="150"/>
-      <c r="T43" s="150"/>
+      <c r="R43" s="145"/>
+      <c r="S43" s="154"/>
+      <c r="T43" s="88"/>
       <c r="U43" s="150"/>
-      <c r="V43" s="147">
+      <c r="V43" s="150"/>
+      <c r="W43" s="150"/>
+      <c r="X43" s="150"/>
+      <c r="Y43" s="150"/>
+      <c r="Z43" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W43" s="148"/>
-      <c r="X43" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="46">
+      <c r="AA43" s="148"/>
+      <c r="AB43" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z43" s="46">
+      <c r="AD43" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA43" s="46">
+      <c r="AE43" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="46">
+      <c r="AF43" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="47">
+      <c r="AG43" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="73">
+      <c r="AH43" s="73">
         <f t="shared" si="11"/>
         <v>823552.26</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="74">
         <v>24</v>
       </c>
@@ -9318,52 +9502,56 @@
       <c r="L44" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M44" s="117">
+      <c r="M44" s="248"/>
+      <c r="N44" s="248"/>
+      <c r="O44" s="248"/>
+      <c r="P44" s="248"/>
+      <c r="Q44" s="117">
         <v>414965.13999999996</v>
       </c>
-      <c r="N44" s="145"/>
-      <c r="O44" s="154"/>
-      <c r="P44" s="88"/>
-      <c r="Q44" s="150"/>
-      <c r="R44" s="150"/>
-      <c r="S44" s="150"/>
-      <c r="T44" s="150"/>
+      <c r="R44" s="145"/>
+      <c r="S44" s="154"/>
+      <c r="T44" s="88"/>
       <c r="U44" s="150"/>
-      <c r="V44" s="147">
+      <c r="V44" s="150"/>
+      <c r="W44" s="150"/>
+      <c r="X44" s="150"/>
+      <c r="Y44" s="150"/>
+      <c r="Z44" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W44" s="148"/>
-      <c r="X44" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="46">
+      <c r="AA44" s="148"/>
+      <c r="AB44" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="AD44" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA44" s="46">
+      <c r="AE44" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="46">
+      <c r="AF44" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC44" s="47">
+      <c r="AG44" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD44" s="73">
+      <c r="AH44" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="74">
         <v>25</v>
       </c>
@@ -9404,53 +9592,57 @@
       <c r="L45" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="117">
+      <c r="M45" s="248"/>
+      <c r="N45" s="248"/>
+      <c r="O45" s="248"/>
+      <c r="P45" s="248"/>
+      <c r="Q45" s="117">
         <f t="shared" si="22"/>
         <v>414965.13999999996</v>
       </c>
-      <c r="N45" s="145"/>
-      <c r="O45" s="154"/>
-      <c r="P45" s="88"/>
-      <c r="Q45" s="150"/>
-      <c r="R45" s="150"/>
-      <c r="S45" s="150"/>
-      <c r="T45" s="150"/>
+      <c r="R45" s="145"/>
+      <c r="S45" s="154"/>
+      <c r="T45" s="88"/>
       <c r="U45" s="150"/>
-      <c r="V45" s="147">
+      <c r="V45" s="150"/>
+      <c r="W45" s="150"/>
+      <c r="X45" s="150"/>
+      <c r="Y45" s="150"/>
+      <c r="Z45" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W45" s="148"/>
-      <c r="X45" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="46">
+      <c r="AA45" s="148"/>
+      <c r="AB45" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="AD45" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA45" s="46">
+      <c r="AE45" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="46">
+      <c r="AF45" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC45" s="47">
+      <c r="AG45" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD45" s="73">
+      <c r="AH45" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="74">
         <v>26</v>
       </c>
@@ -9492,53 +9684,57 @@
       <c r="L46" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M46" s="117">
+      <c r="M46" s="248"/>
+      <c r="N46" s="248"/>
+      <c r="O46" s="248"/>
+      <c r="P46" s="248"/>
+      <c r="Q46" s="117">
         <f t="shared" si="22"/>
         <v>499925.18000000005</v>
       </c>
-      <c r="N46" s="145"/>
-      <c r="O46" s="154"/>
-      <c r="P46" s="88"/>
-      <c r="Q46" s="150"/>
-      <c r="R46" s="150"/>
-      <c r="S46" s="150"/>
-      <c r="T46" s="150"/>
+      <c r="R46" s="145"/>
+      <c r="S46" s="154"/>
+      <c r="T46" s="88"/>
       <c r="U46" s="150"/>
-      <c r="V46" s="147">
+      <c r="V46" s="150"/>
+      <c r="W46" s="150"/>
+      <c r="X46" s="150"/>
+      <c r="Y46" s="150"/>
+      <c r="Z46" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W46" s="148"/>
-      <c r="X46" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="46">
+      <c r="AA46" s="148"/>
+      <c r="AB46" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="AD46" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA46" s="46">
+      <c r="AE46" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="46">
+      <c r="AF46" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC46" s="47">
+      <c r="AG46" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD46" s="73">
+      <c r="AH46" s="73">
         <f t="shared" si="11"/>
         <v>499925.18000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="74">
         <v>27</v>
       </c>
@@ -9580,53 +9776,57 @@
       <c r="L47" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M47" s="117">
-        <f t="shared" ref="M47:M68" si="38">D47*10940</f>
+      <c r="M47" s="248"/>
+      <c r="N47" s="248"/>
+      <c r="O47" s="248"/>
+      <c r="P47" s="248"/>
+      <c r="Q47" s="117">
+        <f t="shared" ref="Q47:Q68" si="38">D47*10940</f>
         <v>843222.38</v>
       </c>
-      <c r="N47" s="145"/>
-      <c r="O47" s="154"/>
-      <c r="P47" s="88"/>
-      <c r="Q47" s="150"/>
-      <c r="R47" s="150"/>
-      <c r="S47" s="150"/>
-      <c r="T47" s="150"/>
+      <c r="R47" s="145"/>
+      <c r="S47" s="154"/>
+      <c r="T47" s="88"/>
       <c r="U47" s="150"/>
-      <c r="V47" s="147">
+      <c r="V47" s="150"/>
+      <c r="W47" s="150"/>
+      <c r="X47" s="150"/>
+      <c r="Y47" s="150"/>
+      <c r="Z47" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W47" s="148"/>
-      <c r="X47" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="46">
+      <c r="AA47" s="148"/>
+      <c r="AB47" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="AD47" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA47" s="46">
+      <c r="AE47" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB47" s="46">
+      <c r="AF47" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC47" s="47">
+      <c r="AG47" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="73">
+      <c r="AH47" s="73">
         <f t="shared" si="11"/>
         <v>843222.38</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="74">
         <v>28</v>
       </c>
@@ -9668,53 +9868,57 @@
       <c r="L48" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="117">
+      <c r="M48" s="248"/>
+      <c r="N48" s="248"/>
+      <c r="O48" s="248"/>
+      <c r="P48" s="248"/>
+      <c r="Q48" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N48" s="145"/>
-      <c r="O48" s="154"/>
-      <c r="P48" s="88"/>
-      <c r="Q48" s="150"/>
-      <c r="R48" s="150"/>
-      <c r="S48" s="150"/>
-      <c r="T48" s="150"/>
+      <c r="R48" s="145"/>
+      <c r="S48" s="154"/>
+      <c r="T48" s="88"/>
       <c r="U48" s="150"/>
-      <c r="V48" s="147">
+      <c r="V48" s="150"/>
+      <c r="W48" s="150"/>
+      <c r="X48" s="150"/>
+      <c r="Y48" s="150"/>
+      <c r="Z48" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W48" s="148"/>
-      <c r="X48" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="46">
+      <c r="AA48" s="148"/>
+      <c r="AB48" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z48" s="46">
+      <c r="AD48" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA48" s="46">
+      <c r="AE48" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB48" s="46">
+      <c r="AF48" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC48" s="47">
+      <c r="AG48" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD48" s="73">
+      <c r="AH48" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="74">
         <v>29</v>
       </c>
@@ -9756,53 +9960,57 @@
       <c r="L49" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M49" s="117">
+      <c r="M49" s="248"/>
+      <c r="N49" s="248"/>
+      <c r="O49" s="248"/>
+      <c r="P49" s="248"/>
+      <c r="Q49" s="117">
         <f t="shared" si="38"/>
         <v>606633.94000000006</v>
       </c>
-      <c r="N49" s="145"/>
-      <c r="O49" s="154"/>
-      <c r="P49" s="88"/>
-      <c r="Q49" s="150"/>
-      <c r="R49" s="150"/>
-      <c r="S49" s="150"/>
-      <c r="T49" s="150"/>
+      <c r="R49" s="145"/>
+      <c r="S49" s="154"/>
+      <c r="T49" s="88"/>
       <c r="U49" s="150"/>
-      <c r="V49" s="147">
+      <c r="V49" s="150"/>
+      <c r="W49" s="150"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="150"/>
+      <c r="Z49" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W49" s="148"/>
-      <c r="X49" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="46">
+      <c r="AA49" s="148"/>
+      <c r="AB49" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z49" s="46">
+      <c r="AD49" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA49" s="46">
+      <c r="AE49" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="46">
+      <c r="AF49" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC49" s="47">
+      <c r="AG49" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="73">
+      <c r="AH49" s="73">
         <f t="shared" si="11"/>
         <v>606633.94000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="74">
         <v>30</v>
       </c>
@@ -9843,145 +10051,153 @@
       <c r="L50" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M50" s="112">
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="112">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N50" s="145"/>
-      <c r="O50" s="154"/>
-      <c r="P50" s="88"/>
-      <c r="Q50" s="150"/>
-      <c r="R50" s="150"/>
-      <c r="S50" s="150"/>
-      <c r="T50" s="150"/>
+      <c r="R50" s="145"/>
+      <c r="S50" s="154"/>
+      <c r="T50" s="88"/>
       <c r="U50" s="150"/>
-      <c r="V50" s="147">
+      <c r="V50" s="150"/>
+      <c r="W50" s="150"/>
+      <c r="X50" s="150"/>
+      <c r="Y50" s="150"/>
+      <c r="Z50" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W50" s="148"/>
-      <c r="X50" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="46">
+      <c r="AA50" s="148"/>
+      <c r="AB50" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z50" s="46">
+      <c r="AD50" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA50" s="46">
+      <c r="AE50" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="46">
+      <c r="AF50" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC50" s="47">
+      <c r="AG50" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="73">
+      <c r="AH50" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="225">
+    <row r="51" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="174">
         <v>31</v>
       </c>
-      <c r="B51" s="241" t="s">
+      <c r="B51" s="190" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="241" t="s">
+      <c r="C51" s="190" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="242">
+      <c r="D51" s="191">
         <v>35.601999999999997</v>
       </c>
-      <c r="E51" s="243" t="s">
+      <c r="E51" s="192" t="s">
         <v>106</v>
       </c>
-      <c r="F51" s="245">
+      <c r="F51" s="194">
         <f>H50</f>
         <v>45936</v>
       </c>
-      <c r="G51" s="229">
+      <c r="G51" s="178">
         <f t="shared" ref="G51" si="40">H50+1</f>
         <v>45937</v>
       </c>
-      <c r="H51" s="229">
+      <c r="H51" s="178">
         <f>G51+8</f>
         <v>45945</v>
       </c>
-      <c r="I51" s="229">
+      <c r="I51" s="178">
         <f t="shared" si="39"/>
         <v>45946</v>
       </c>
-      <c r="J51" s="229">
+      <c r="J51" s="178">
         <f>I51+2</f>
         <v>45948</v>
       </c>
-      <c r="K51" s="229" t="s">
+      <c r="K51" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="L51" s="246" t="s">
+      <c r="L51" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="M51" s="244">
+      <c r="M51" s="195"/>
+      <c r="N51" s="195"/>
+      <c r="O51" s="195"/>
+      <c r="P51" s="195"/>
+      <c r="Q51" s="193">
         <f t="shared" si="38"/>
         <v>389485.87999999995</v>
       </c>
-      <c r="N51" s="232"/>
-      <c r="O51" s="233">
+      <c r="R51" s="181"/>
+      <c r="S51" s="182">
         <v>45937</v>
       </c>
-      <c r="P51" s="234"/>
-      <c r="Q51" s="235">
+      <c r="T51" s="183"/>
+      <c r="U51" s="184">
         <v>1</v>
       </c>
-      <c r="R51" s="235"/>
-      <c r="S51" s="235"/>
-      <c r="T51" s="235"/>
-      <c r="U51" s="235"/>
-      <c r="V51" s="236">
+      <c r="V51" s="184"/>
+      <c r="W51" s="184"/>
+      <c r="X51" s="184"/>
+      <c r="Y51" s="184"/>
+      <c r="Z51" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W51" s="237"/>
-      <c r="X51" s="238">
+      <c r="AA51" s="186"/>
+      <c r="AB51" s="187">
         <f t="shared" si="5"/>
         <v>389485.87999999995</v>
       </c>
-      <c r="Y51" s="238">
+      <c r="AC51" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z51" s="238">
+      <c r="AD51" s="187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA51" s="238">
+      <c r="AE51" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="238">
+      <c r="AF51" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC51" s="239">
+      <c r="AG51" s="188">
         <f t="shared" si="10"/>
         <v>389485.87999999995</v>
       </c>
-      <c r="AD51" s="240">
+      <c r="AH51" s="189">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="74">
         <v>32</v>
       </c>
@@ -10023,53 +10239,57 @@
       <c r="L52" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M52" s="117">
+      <c r="M52" s="248"/>
+      <c r="N52" s="248"/>
+      <c r="O52" s="248"/>
+      <c r="P52" s="248"/>
+      <c r="Q52" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N52" s="145"/>
-      <c r="O52" s="154"/>
-      <c r="P52" s="88"/>
-      <c r="Q52" s="150"/>
-      <c r="R52" s="150"/>
-      <c r="S52" s="150"/>
-      <c r="T52" s="150"/>
+      <c r="R52" s="145"/>
+      <c r="S52" s="154"/>
+      <c r="T52" s="88"/>
       <c r="U52" s="150"/>
-      <c r="V52" s="147">
+      <c r="V52" s="150"/>
+      <c r="W52" s="150"/>
+      <c r="X52" s="150"/>
+      <c r="Y52" s="150"/>
+      <c r="Z52" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W52" s="148"/>
-      <c r="X52" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y52" s="46">
+      <c r="AA52" s="148"/>
+      <c r="AB52" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z52" s="46">
+      <c r="AD52" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA52" s="46">
+      <c r="AE52" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB52" s="46">
+      <c r="AF52" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC52" s="47">
+      <c r="AG52" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD52" s="73">
+      <c r="AH52" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="74">
         <v>33</v>
       </c>
@@ -10111,53 +10331,57 @@
       <c r="L53" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M53" s="117">
+      <c r="M53" s="248"/>
+      <c r="N53" s="248"/>
+      <c r="O53" s="248"/>
+      <c r="P53" s="248"/>
+      <c r="Q53" s="117">
         <f t="shared" si="38"/>
         <v>389485.87999999995</v>
       </c>
-      <c r="N53" s="145"/>
-      <c r="O53" s="154"/>
-      <c r="P53" s="88"/>
-      <c r="Q53" s="150"/>
-      <c r="R53" s="150"/>
-      <c r="S53" s="150"/>
-      <c r="T53" s="150"/>
+      <c r="R53" s="145"/>
+      <c r="S53" s="154"/>
+      <c r="T53" s="88"/>
       <c r="U53" s="150"/>
-      <c r="V53" s="147">
+      <c r="V53" s="150"/>
+      <c r="W53" s="150"/>
+      <c r="X53" s="150"/>
+      <c r="Y53" s="150"/>
+      <c r="Z53" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W53" s="148"/>
-      <c r="X53" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="46">
+      <c r="AA53" s="148"/>
+      <c r="AB53" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z53" s="46">
+      <c r="AD53" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA53" s="46">
+      <c r="AE53" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="46">
+      <c r="AF53" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC53" s="47">
+      <c r="AG53" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="73">
+      <c r="AH53" s="73">
         <f t="shared" si="11"/>
         <v>389485.87999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="74">
         <v>34</v>
       </c>
@@ -10198,53 +10422,57 @@
       <c r="L54" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M54" s="117">
+      <c r="M54" s="248"/>
+      <c r="N54" s="248"/>
+      <c r="O54" s="248"/>
+      <c r="P54" s="248"/>
+      <c r="Q54" s="117">
         <f t="shared" si="38"/>
         <v>606633.94000000006</v>
       </c>
-      <c r="N54" s="145"/>
-      <c r="O54" s="154"/>
-      <c r="P54" s="88"/>
-      <c r="Q54" s="150"/>
-      <c r="R54" s="150"/>
-      <c r="S54" s="150"/>
-      <c r="T54" s="150"/>
+      <c r="R54" s="145"/>
+      <c r="S54" s="154"/>
+      <c r="T54" s="88"/>
       <c r="U54" s="150"/>
-      <c r="V54" s="147">
+      <c r="V54" s="150"/>
+      <c r="W54" s="150"/>
+      <c r="X54" s="150"/>
+      <c r="Y54" s="150"/>
+      <c r="Z54" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W54" s="148"/>
-      <c r="X54" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="46">
+      <c r="AA54" s="148"/>
+      <c r="AB54" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z54" s="46">
+      <c r="AD54" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA54" s="46">
+      <c r="AE54" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB54" s="46">
+      <c r="AF54" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC54" s="47">
+      <c r="AG54" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD54" s="73">
+      <c r="AH54" s="73">
         <f t="shared" si="11"/>
         <v>606633.94000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="74">
         <v>35</v>
       </c>
@@ -10286,53 +10514,57 @@
       <c r="L55" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M55" s="117">
+      <c r="M55" s="248"/>
+      <c r="N55" s="248"/>
+      <c r="O55" s="248"/>
+      <c r="P55" s="248"/>
+      <c r="Q55" s="117">
         <f t="shared" si="38"/>
         <v>679549.04</v>
       </c>
-      <c r="N55" s="145"/>
-      <c r="O55" s="154"/>
-      <c r="P55" s="88"/>
-      <c r="Q55" s="150"/>
-      <c r="R55" s="150"/>
-      <c r="S55" s="150"/>
-      <c r="T55" s="150"/>
+      <c r="R55" s="145"/>
+      <c r="S55" s="154"/>
+      <c r="T55" s="88"/>
       <c r="U55" s="150"/>
-      <c r="V55" s="147">
+      <c r="V55" s="150"/>
+      <c r="W55" s="150"/>
+      <c r="X55" s="150"/>
+      <c r="Y55" s="150"/>
+      <c r="Z55" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W55" s="148"/>
-      <c r="X55" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="46">
+      <c r="AA55" s="148"/>
+      <c r="AB55" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z55" s="46">
+      <c r="AD55" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA55" s="46">
+      <c r="AE55" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB55" s="46">
+      <c r="AF55" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC55" s="47">
+      <c r="AG55" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD55" s="73">
+      <c r="AH55" s="73">
         <f t="shared" si="11"/>
         <v>679549.04</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="74">
         <v>36</v>
       </c>
@@ -10374,53 +10606,57 @@
       <c r="L56" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M56" s="117">
+      <c r="M56" s="248"/>
+      <c r="N56" s="248"/>
+      <c r="O56" s="248"/>
+      <c r="P56" s="248"/>
+      <c r="Q56" s="117">
         <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
-      <c r="N56" s="145"/>
-      <c r="O56" s="154"/>
-      <c r="P56" s="88"/>
-      <c r="Q56" s="150"/>
-      <c r="R56" s="150"/>
-      <c r="S56" s="150"/>
-      <c r="T56" s="150"/>
+      <c r="R56" s="145"/>
+      <c r="S56" s="154"/>
+      <c r="T56" s="88"/>
       <c r="U56" s="150"/>
-      <c r="V56" s="147">
+      <c r="V56" s="150"/>
+      <c r="W56" s="150"/>
+      <c r="X56" s="150"/>
+      <c r="Y56" s="150"/>
+      <c r="Z56" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W56" s="148"/>
-      <c r="X56" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="46">
+      <c r="AA56" s="148"/>
+      <c r="AB56" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z56" s="46">
+      <c r="AD56" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA56" s="46">
+      <c r="AE56" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB56" s="46">
+      <c r="AF56" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="47">
+      <c r="AG56" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD56" s="73">
+      <c r="AH56" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="74">
         <v>37</v>
       </c>
@@ -10462,53 +10698,57 @@
       <c r="L57" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M57" s="117">
+      <c r="M57" s="248"/>
+      <c r="N57" s="248"/>
+      <c r="O57" s="248"/>
+      <c r="P57" s="248"/>
+      <c r="Q57" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N57" s="145"/>
-      <c r="O57" s="154"/>
-      <c r="P57" s="88"/>
-      <c r="Q57" s="150"/>
-      <c r="R57" s="150"/>
-      <c r="S57" s="150"/>
-      <c r="T57" s="150"/>
+      <c r="R57" s="145"/>
+      <c r="S57" s="154"/>
+      <c r="T57" s="88"/>
       <c r="U57" s="150"/>
-      <c r="V57" s="147">
+      <c r="V57" s="150"/>
+      <c r="W57" s="150"/>
+      <c r="X57" s="150"/>
+      <c r="Y57" s="150"/>
+      <c r="Z57" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W57" s="148"/>
-      <c r="X57" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="46">
+      <c r="AA57" s="148"/>
+      <c r="AB57" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z57" s="46">
+      <c r="AD57" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA57" s="46">
+      <c r="AE57" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB57" s="46">
+      <c r="AF57" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC57" s="47">
+      <c r="AG57" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD57" s="73">
+      <c r="AH57" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="74">
         <v>38</v>
       </c>
@@ -10550,144 +10790,152 @@
       <c r="L58" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M58" s="117">
+      <c r="M58" s="248"/>
+      <c r="N58" s="248"/>
+      <c r="O58" s="248"/>
+      <c r="P58" s="248"/>
+      <c r="Q58" s="117">
         <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
-      <c r="N58" s="145"/>
-      <c r="O58" s="154"/>
-      <c r="P58" s="88"/>
-      <c r="Q58" s="150"/>
-      <c r="R58" s="150"/>
-      <c r="S58" s="150"/>
-      <c r="T58" s="150"/>
+      <c r="R58" s="145"/>
+      <c r="S58" s="154"/>
+      <c r="T58" s="88"/>
       <c r="U58" s="150"/>
-      <c r="V58" s="147">
+      <c r="V58" s="150"/>
+      <c r="W58" s="150"/>
+      <c r="X58" s="150"/>
+      <c r="Y58" s="150"/>
+      <c r="Z58" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W58" s="148"/>
-      <c r="X58" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="46">
+      <c r="AA58" s="148"/>
+      <c r="AB58" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z58" s="46">
+      <c r="AD58" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA58" s="46">
+      <c r="AE58" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB58" s="46">
+      <c r="AF58" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC58" s="47">
+      <c r="AG58" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD58" s="73">
+      <c r="AH58" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="225">
+    <row r="59" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="174">
         <v>39</v>
       </c>
-      <c r="B59" s="226" t="s">
+      <c r="B59" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="C59" s="226" t="s">
+      <c r="C59" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="242">
+      <c r="D59" s="191">
         <v>36.159999999999997</v>
       </c>
-      <c r="E59" s="228" t="s">
+      <c r="E59" s="177" t="s">
         <v>187</v>
       </c>
-      <c r="F59" s="229">
+      <c r="F59" s="178">
         <v>45931</v>
       </c>
-      <c r="G59" s="229">
+      <c r="G59" s="178">
         <f>F59+1</f>
         <v>45932</v>
       </c>
-      <c r="H59" s="229">
+      <c r="H59" s="178">
         <f t="shared" si="43"/>
         <v>45936</v>
       </c>
-      <c r="I59" s="229">
+      <c r="I59" s="178">
         <f t="shared" ref="I59:I63" si="47">H59+1</f>
         <v>45937</v>
       </c>
-      <c r="J59" s="229">
+      <c r="J59" s="178">
         <f>I59+2</f>
         <v>45939</v>
       </c>
-      <c r="K59" s="229" t="s">
+      <c r="K59" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="L59" s="246" t="s">
+      <c r="L59" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="M59" s="231">
+      <c r="M59" s="249"/>
+      <c r="N59" s="249"/>
+      <c r="O59" s="249"/>
+      <c r="P59" s="249"/>
+      <c r="Q59" s="180">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N59" s="232"/>
-      <c r="O59" s="233">
+      <c r="R59" s="181"/>
+      <c r="S59" s="182">
         <v>45931</v>
       </c>
-      <c r="P59" s="234"/>
-      <c r="Q59" s="235">
+      <c r="T59" s="183"/>
+      <c r="U59" s="184">
         <v>1</v>
       </c>
-      <c r="R59" s="235"/>
-      <c r="S59" s="235"/>
-      <c r="T59" s="235"/>
-      <c r="U59" s="235"/>
-      <c r="V59" s="236">
+      <c r="V59" s="184"/>
+      <c r="W59" s="184"/>
+      <c r="X59" s="184"/>
+      <c r="Y59" s="184"/>
+      <c r="Z59" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W59" s="237"/>
-      <c r="X59" s="238">
+      <c r="AA59" s="186"/>
+      <c r="AB59" s="187">
         <f t="shared" si="5"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="Y59" s="238">
+      <c r="AC59" s="187">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z59" s="238">
+      <c r="AD59" s="187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA59" s="238">
+      <c r="AE59" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB59" s="238">
+      <c r="AF59" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC59" s="239">
+      <c r="AG59" s="188">
         <f t="shared" si="10"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="AD59" s="240">
+      <c r="AH59" s="189">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="74">
         <v>40</v>
       </c>
@@ -10729,53 +10977,57 @@
       <c r="L60" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M60" s="117">
+      <c r="M60" s="248"/>
+      <c r="N60" s="248"/>
+      <c r="O60" s="248"/>
+      <c r="P60" s="248"/>
+      <c r="Q60" s="117">
         <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
-      <c r="N60" s="145"/>
-      <c r="O60" s="154"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="150"/>
-      <c r="R60" s="150"/>
-      <c r="S60" s="150"/>
-      <c r="T60" s="150"/>
+      <c r="R60" s="145"/>
+      <c r="S60" s="154"/>
+      <c r="T60" s="88"/>
       <c r="U60" s="150"/>
-      <c r="V60" s="147">
+      <c r="V60" s="150"/>
+      <c r="W60" s="150"/>
+      <c r="X60" s="150"/>
+      <c r="Y60" s="150"/>
+      <c r="Z60" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W60" s="148"/>
-      <c r="X60" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="46">
+      <c r="AA60" s="148"/>
+      <c r="AB60" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z60" s="46">
+      <c r="AD60" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA60" s="46">
+      <c r="AE60" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB60" s="46">
+      <c r="AF60" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC60" s="47">
+      <c r="AG60" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD60" s="73">
+      <c r="AH60" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="74">
         <v>41</v>
       </c>
@@ -10817,53 +11069,57 @@
       <c r="L61" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M61" s="117">
+      <c r="M61" s="248"/>
+      <c r="N61" s="248"/>
+      <c r="O61" s="248"/>
+      <c r="P61" s="248"/>
+      <c r="Q61" s="117">
         <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
-      <c r="N61" s="145"/>
-      <c r="O61" s="154"/>
-      <c r="P61" s="88"/>
-      <c r="Q61" s="150"/>
-      <c r="R61" s="150"/>
-      <c r="S61" s="150"/>
-      <c r="T61" s="150"/>
+      <c r="R61" s="145"/>
+      <c r="S61" s="154"/>
+      <c r="T61" s="88"/>
       <c r="U61" s="150"/>
-      <c r="V61" s="147">
+      <c r="V61" s="150"/>
+      <c r="W61" s="150"/>
+      <c r="X61" s="150"/>
+      <c r="Y61" s="150"/>
+      <c r="Z61" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W61" s="148"/>
-      <c r="X61" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="46">
+      <c r="AA61" s="148"/>
+      <c r="AB61" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z61" s="46">
+      <c r="AD61" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA61" s="46">
+      <c r="AE61" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB61" s="46">
+      <c r="AF61" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC61" s="47">
+      <c r="AG61" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD61" s="73">
+      <c r="AH61" s="73">
         <f t="shared" si="11"/>
         <v>414965.13999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="74">
         <v>42</v>
       </c>
@@ -10905,53 +11161,57 @@
       <c r="L62" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M62" s="117">
+      <c r="M62" s="248"/>
+      <c r="N62" s="248"/>
+      <c r="O62" s="248"/>
+      <c r="P62" s="248"/>
+      <c r="Q62" s="117">
         <f t="shared" si="38"/>
         <v>479215.76</v>
       </c>
-      <c r="N62" s="145"/>
-      <c r="O62" s="154"/>
-      <c r="P62" s="88"/>
-      <c r="Q62" s="150"/>
-      <c r="R62" s="150"/>
-      <c r="S62" s="150"/>
-      <c r="T62" s="150"/>
+      <c r="R62" s="145"/>
+      <c r="S62" s="154"/>
+      <c r="T62" s="88"/>
       <c r="U62" s="150"/>
-      <c r="V62" s="147">
+      <c r="V62" s="150"/>
+      <c r="W62" s="150"/>
+      <c r="X62" s="150"/>
+      <c r="Y62" s="150"/>
+      <c r="Z62" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W62" s="148"/>
-      <c r="X62" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="46">
+      <c r="AA62" s="148"/>
+      <c r="AB62" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z62" s="46">
+      <c r="AD62" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA62" s="46">
+      <c r="AE62" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB62" s="46">
+      <c r="AF62" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC62" s="47">
+      <c r="AG62" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD62" s="73">
+      <c r="AH62" s="73">
         <f t="shared" si="11"/>
         <v>479215.76</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="74">
         <v>43</v>
       </c>
@@ -10993,53 +11253,57 @@
       <c r="L63" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M63" s="117">
+      <c r="M63" s="248"/>
+      <c r="N63" s="248"/>
+      <c r="O63" s="248"/>
+      <c r="P63" s="248"/>
+      <c r="Q63" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N63" s="145"/>
-      <c r="O63" s="154"/>
-      <c r="P63" s="88"/>
-      <c r="Q63" s="150"/>
-      <c r="R63" s="150"/>
-      <c r="S63" s="150"/>
-      <c r="T63" s="150"/>
+      <c r="R63" s="145"/>
+      <c r="S63" s="154"/>
+      <c r="T63" s="88"/>
       <c r="U63" s="150"/>
-      <c r="V63" s="147">
+      <c r="V63" s="150"/>
+      <c r="W63" s="150"/>
+      <c r="X63" s="150"/>
+      <c r="Y63" s="150"/>
+      <c r="Z63" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W63" s="148"/>
-      <c r="X63" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="46">
+      <c r="AA63" s="148"/>
+      <c r="AB63" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z63" s="46">
+      <c r="AD63" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA63" s="46">
+      <c r="AE63" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB63" s="46">
+      <c r="AF63" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC63" s="47">
+      <c r="AG63" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD63" s="73">
+      <c r="AH63" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="74">
         <v>44</v>
       </c>
@@ -11080,53 +11344,57 @@
       <c r="L64" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M64" s="117">
+      <c r="M64" s="248"/>
+      <c r="N64" s="248"/>
+      <c r="O64" s="248"/>
+      <c r="P64" s="248"/>
+      <c r="Q64" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N64" s="145"/>
-      <c r="O64" s="154"/>
-      <c r="P64" s="88"/>
-      <c r="Q64" s="150"/>
-      <c r="R64" s="150"/>
-      <c r="S64" s="150"/>
-      <c r="T64" s="150"/>
+      <c r="R64" s="145"/>
+      <c r="S64" s="154"/>
+      <c r="T64" s="88"/>
       <c r="U64" s="150"/>
-      <c r="V64" s="147">
+      <c r="V64" s="150"/>
+      <c r="W64" s="150"/>
+      <c r="X64" s="150"/>
+      <c r="Y64" s="150"/>
+      <c r="Z64" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W64" s="148"/>
-      <c r="X64" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y64" s="46">
+      <c r="AA64" s="148"/>
+      <c r="AB64" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC64" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z64" s="46">
+      <c r="AD64" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA64" s="46">
+      <c r="AE64" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB64" s="46">
+      <c r="AF64" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC64" s="47">
+      <c r="AG64" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD64" s="73">
+      <c r="AH64" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="74">
         <v>45</v>
       </c>
@@ -11168,53 +11436,57 @@
       <c r="L65" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M65" s="117">
+      <c r="M65" s="248"/>
+      <c r="N65" s="248"/>
+      <c r="O65" s="248"/>
+      <c r="P65" s="248"/>
+      <c r="Q65" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N65" s="145"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="88"/>
-      <c r="Q65" s="150"/>
-      <c r="R65" s="150"/>
-      <c r="S65" s="150"/>
-      <c r="T65" s="150"/>
+      <c r="R65" s="145"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="88"/>
       <c r="U65" s="150"/>
-      <c r="V65" s="147">
+      <c r="V65" s="150"/>
+      <c r="W65" s="150"/>
+      <c r="X65" s="150"/>
+      <c r="Y65" s="150"/>
+      <c r="Z65" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W65" s="148"/>
-      <c r="X65" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="46">
+      <c r="AA65" s="148"/>
+      <c r="AB65" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z65" s="46">
+      <c r="AD65" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA65" s="46">
+      <c r="AE65" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB65" s="46">
+      <c r="AF65" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC65" s="47">
+      <c r="AG65" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD65" s="73">
+      <c r="AH65" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="74">
         <v>46</v>
       </c>
@@ -11256,145 +11528,153 @@
       <c r="L66" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M66" s="117">
+      <c r="M66" s="248"/>
+      <c r="N66" s="248"/>
+      <c r="O66" s="248"/>
+      <c r="P66" s="248"/>
+      <c r="Q66" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N66" s="145"/>
-      <c r="O66" s="154"/>
-      <c r="P66" s="88"/>
-      <c r="Q66" s="150"/>
-      <c r="R66" s="150"/>
-      <c r="S66" s="150"/>
-      <c r="T66" s="150"/>
+      <c r="R66" s="145"/>
+      <c r="S66" s="154"/>
+      <c r="T66" s="88"/>
       <c r="U66" s="150"/>
-      <c r="V66" s="147">
+      <c r="V66" s="150"/>
+      <c r="W66" s="150"/>
+      <c r="X66" s="150"/>
+      <c r="Y66" s="150"/>
+      <c r="Z66" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W66" s="148"/>
-      <c r="X66" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="46">
+      <c r="AA66" s="148"/>
+      <c r="AB66" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z66" s="46">
+      <c r="AD66" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="46">
+      <c r="AE66" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB66" s="46">
+      <c r="AF66" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC66" s="47">
+      <c r="AG66" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="73">
+      <c r="AH66" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="225">
+    <row r="67" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="174">
         <v>47</v>
       </c>
-      <c r="B67" s="226" t="s">
+      <c r="B67" s="175" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="241" t="s">
+      <c r="C67" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="D67" s="242">
+      <c r="D67" s="191">
         <v>36.159999999999997</v>
       </c>
-      <c r="E67" s="243" t="s">
+      <c r="E67" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="F67" s="229">
+      <c r="F67" s="178">
         <f>H66</f>
         <v>45946</v>
       </c>
-      <c r="G67" s="229">
+      <c r="G67" s="178">
         <f>F67+1</f>
         <v>45947</v>
       </c>
-      <c r="H67" s="229">
+      <c r="H67" s="178">
         <f t="shared" si="43"/>
         <v>45951</v>
       </c>
-      <c r="I67" s="229">
+      <c r="I67" s="178">
         <f t="shared" si="50"/>
         <v>45952</v>
       </c>
-      <c r="J67" s="229">
+      <c r="J67" s="178">
         <f t="shared" si="52"/>
         <v>45953</v>
       </c>
-      <c r="K67" s="229" t="s">
+      <c r="K67" s="178" t="s">
         <v>63</v>
       </c>
-      <c r="L67" s="246" t="s">
+      <c r="L67" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="M67" s="231">
+      <c r="M67" s="249"/>
+      <c r="N67" s="249"/>
+      <c r="O67" s="249"/>
+      <c r="P67" s="249"/>
+      <c r="Q67" s="180">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N67" s="232"/>
-      <c r="O67" s="233">
+      <c r="R67" s="181"/>
+      <c r="S67" s="182">
         <v>45938</v>
       </c>
-      <c r="P67" s="234"/>
-      <c r="Q67" s="235"/>
-      <c r="R67" s="235">
+      <c r="T67" s="183"/>
+      <c r="U67" s="184"/>
+      <c r="V67" s="184">
         <v>1</v>
       </c>
-      <c r="S67" s="235"/>
-      <c r="T67" s="235"/>
-      <c r="U67" s="235"/>
-      <c r="V67" s="236">
+      <c r="W67" s="184"/>
+      <c r="X67" s="184"/>
+      <c r="Y67" s="184"/>
+      <c r="Z67" s="185">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W67" s="237"/>
-      <c r="X67" s="238">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="238">
+      <c r="AA67" s="186"/>
+      <c r="AB67" s="187">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC67" s="187">
         <f t="shared" si="6"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="Z67" s="238">
+      <c r="AD67" s="187">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA67" s="238">
+      <c r="AE67" s="187">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB67" s="238">
+      <c r="AF67" s="187">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC67" s="239">
+      <c r="AG67" s="188">
         <f t="shared" si="10"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="AD67" s="240">
+      <c r="AH67" s="189">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="74">
         <v>48</v>
       </c>
@@ -11436,53 +11716,57 @@
       <c r="L68" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M68" s="117">
+      <c r="M68" s="248"/>
+      <c r="N68" s="248"/>
+      <c r="O68" s="248"/>
+      <c r="P68" s="248"/>
+      <c r="Q68" s="117">
         <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="N68" s="145"/>
-      <c r="O68" s="154"/>
-      <c r="P68" s="88"/>
-      <c r="Q68" s="150"/>
-      <c r="R68" s="150"/>
-      <c r="S68" s="150"/>
-      <c r="T68" s="150"/>
+      <c r="R68" s="145"/>
+      <c r="S68" s="154"/>
+      <c r="T68" s="88"/>
       <c r="U68" s="150"/>
-      <c r="V68" s="147">
+      <c r="V68" s="150"/>
+      <c r="W68" s="150"/>
+      <c r="X68" s="150"/>
+      <c r="Y68" s="150"/>
+      <c r="Z68" s="147">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W68" s="148"/>
-      <c r="X68" s="46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y68" s="46">
+      <c r="AA68" s="148"/>
+      <c r="AB68" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC68" s="46">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z68" s="46">
+      <c r="AD68" s="46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA68" s="46">
+      <c r="AE68" s="46">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB68" s="46">
+      <c r="AF68" s="46">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AC68" s="47">
+      <c r="AG68" s="47">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AD68" s="73">
+      <c r="AH68" s="73">
         <f t="shared" si="11"/>
         <v>395590.39999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:34" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="66"/>
       <c r="B69" s="67"/>
       <c r="C69" s="67"/>
@@ -11498,109 +11782,103 @@
       <c r="J69" s="67"/>
       <c r="K69" s="67"/>
       <c r="L69" s="139"/>
-      <c r="M69" s="126">
-        <f>SUM(M21:M68)</f>
+      <c r="M69" s="139"/>
+      <c r="N69" s="139"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="139"/>
+      <c r="Q69" s="126">
+        <f>SUM(Q21:Q68)</f>
         <v>27566250.979999986</v>
       </c>
-      <c r="N69" s="146"/>
-      <c r="O69" s="155"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="151">
-        <f t="shared" ref="Q69:V69" si="53">SUM(Q21:Q68)</f>
+      <c r="R69" s="146"/>
+      <c r="S69" s="155"/>
+      <c r="T69" s="84"/>
+      <c r="U69" s="151">
+        <f t="shared" ref="U69:Z69" si="53">SUM(U21:U68)</f>
         <v>4</v>
       </c>
-      <c r="R69" s="151">
+      <c r="V69" s="151">
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="S69" s="151">
+      <c r="W69" s="151">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="T69" s="151">
+      <c r="X69" s="151">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="U69" s="151">
+      <c r="Y69" s="151">
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="V69" s="151">
+      <c r="Z69" s="151">
         <f t="shared" si="53"/>
         <v>5</v>
       </c>
-      <c r="W69" s="152"/>
-      <c r="X69" s="106">
-        <f t="shared" ref="X69:AD69" si="54">SUM(X21:X68)</f>
+      <c r="AA69" s="152"/>
+      <c r="AB69" s="106">
+        <f t="shared" ref="AB69:AH69" si="54">SUM(AB21:AB68)</f>
         <v>2420223.38</v>
       </c>
-      <c r="Y69" s="106">
+      <c r="AC69" s="106">
         <f t="shared" si="54"/>
         <v>395590.39999999997</v>
       </c>
-      <c r="Z69" s="106">
+      <c r="AD69" s="106">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AA69" s="106">
+      <c r="AE69" s="106">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AB69" s="106">
+      <c r="AF69" s="106">
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AC69" s="106">
+      <c r="AG69" s="106">
         <f t="shared" si="54"/>
         <v>2815813.78</v>
       </c>
-      <c r="AD69" s="92">
+      <c r="AH69" s="92">
         <f t="shared" si="54"/>
         <v>24750437.199999996</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="X70" s="48"/>
-      <c r="Y70" s="48"/>
-      <c r="Z70" s="48"/>
-      <c r="AA70" s="48"/>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="AB70" s="48"/>
       <c r="AC70" s="48"/>
       <c r="AD70" s="48"/>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="AE70" s="48"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="48"/>
+      <c r="AH70" s="48"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="D74" s="107"/>
     </row>
   </sheetData>
-  <autoFilter ref="A20:AD69" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="27">
+  <autoFilter ref="A20:AH69" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <mergeCells count="17">
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="AH18:AH19"/>
+    <mergeCell ref="AB19:AB20"/>
+    <mergeCell ref="AC19:AC20"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AB18:AG18"/>
     <mergeCell ref="U19:U20"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="AD18:AD19"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
-    <mergeCell ref="AA19:AA20"/>
-    <mergeCell ref="AB19:AB20"/>
-    <mergeCell ref="X18:AC18"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="U18:Z18"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1:B2">
@@ -11618,7 +11896,7 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="12" max="1048575" man="1"/>
+    <brk id="16" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Raw Data/Micro Plans/Micro Plan TA-505 Oct '25.xlsx
+++ b/Raw Data/Micro Plans/Micro Plan TA-505 Oct '25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Raw Data\Micro Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB8128-1BA9-4D0C-9015-643C31D9F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0BC03E-45DE-4FD2-B71D-DB72506C6A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1993,6 +1993,48 @@
     <xf numFmtId="166" fontId="11" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2012,6 +2054,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2032,18 +2134,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2053,55 +2143,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2115,69 +2178,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2192,7 +2192,37 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2880,26 +2910,26 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="199"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="213"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="214" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="201"/>
-      <c r="C3" s="201"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="202"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="216"/>
     </row>
     <row r="4" spans="1:11" s="49" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
@@ -2999,12 +3029,12 @@
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="78"/>
-      <c r="B8" s="196" t="s">
+      <c r="B8" s="210" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="F8" s="79">
         <f>SUM(F5:F7)</f>
         <v>48075445.063227482</v>
@@ -3065,10 +3095,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="230" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="230"/>
+      <c r="A1" s="220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="220"/>
       <c r="D1" s="17" t="s">
         <v>41</v>
       </c>
@@ -3155,24 +3185,24 @@
         <f>R51</f>
         <v>20193024.083227497</v>
       </c>
-      <c r="H9" s="231" t="s">
+      <c r="H9" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="L9" s="227" t="s">
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="L9" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="M9" s="227"/>
+      <c r="M9" s="217"/>
       <c r="N9" s="33">
         <f>E9*10539</f>
         <v>316170</v>
       </c>
-      <c r="O9" s="228">
+      <c r="O9" s="218">
         <f>G9+N9</f>
         <v>20509194.083227497</v>
       </c>
-      <c r="P9" s="229"/>
+      <c r="P9" s="219"/>
     </row>
     <row r="10" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -3304,8 +3334,8 @@
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="39"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="230"/>
+      <c r="O15" s="220"/>
+      <c r="P15" s="220"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -3332,19 +3362,19 @@
       </c>
       <c r="I16" s="41"/>
       <c r="J16" s="23"/>
-      <c r="L16" s="227" t="s">
+      <c r="L16" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="227"/>
+      <c r="M16" s="217"/>
       <c r="N16" s="33">
         <f>E16*10539</f>
         <v>10539</v>
       </c>
-      <c r="O16" s="228">
+      <c r="O16" s="218">
         <f>G16+N16</f>
         <v>574580.6</v>
       </c>
-      <c r="P16" s="229"/>
+      <c r="P16" s="219"/>
     </row>
     <row r="17" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
@@ -3353,152 +3383,152 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="216" t="s">
+      <c r="A18" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="218" t="s">
+      <c r="B18" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="218" t="s">
+      <c r="D18" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="211" t="s">
+      <c r="E18" s="229" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="211" t="s">
+      <c r="F18" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="211" t="s">
+      <c r="G18" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="H18" s="211" t="s">
+      <c r="H18" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="211" t="s">
+      <c r="I18" s="229" t="s">
         <v>62</v>
       </c>
-      <c r="J18" s="223" t="s">
+      <c r="J18" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="223"/>
-      <c r="L18" s="223"/>
-      <c r="M18" s="223"/>
-      <c r="N18" s="223"/>
-      <c r="O18" s="223"/>
-      <c r="P18" s="223"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="205" t="s">
+      <c r="K18" s="233"/>
+      <c r="L18" s="233"/>
+      <c r="M18" s="233"/>
+      <c r="N18" s="233"/>
+      <c r="O18" s="233"/>
+      <c r="P18" s="233"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="239" t="s">
         <v>17</v>
       </c>
-      <c r="S18" s="203"/>
-      <c r="T18" s="211" t="s">
+      <c r="S18" s="237"/>
+      <c r="T18" s="229" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="203"/>
-      <c r="V18" s="213" t="s">
+      <c r="U18" s="237"/>
+      <c r="V18" s="243" t="s">
         <v>29</v>
       </c>
-      <c r="W18" s="214"/>
-      <c r="X18" s="214"/>
-      <c r="Y18" s="214"/>
-      <c r="Z18" s="214"/>
-      <c r="AA18" s="215"/>
+      <c r="W18" s="244"/>
+      <c r="X18" s="244"/>
+      <c r="Y18" s="244"/>
+      <c r="Z18" s="244"/>
+      <c r="AA18" s="245"/>
       <c r="AB18" s="71"/>
-      <c r="AC18" s="213" t="s">
+      <c r="AC18" s="243" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="214"/>
-      <c r="AE18" s="214"/>
-      <c r="AF18" s="214"/>
-      <c r="AG18" s="214"/>
-      <c r="AH18" s="215"/>
-      <c r="AI18" s="207" t="s">
+      <c r="AD18" s="244"/>
+      <c r="AE18" s="244"/>
+      <c r="AF18" s="244"/>
+      <c r="AG18" s="244"/>
+      <c r="AH18" s="245"/>
+      <c r="AI18" s="241" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="217"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="219"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
-      <c r="J19" s="224" t="s">
+      <c r="A19" s="225"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="230"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="230"/>
+      <c r="J19" s="234" t="s">
         <v>7</v>
       </c>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224" t="s">
+      <c r="K19" s="234"/>
+      <c r="L19" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224" t="s">
+      <c r="M19" s="234"/>
+      <c r="N19" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="224"/>
-      <c r="P19" s="225" t="s">
+      <c r="O19" s="234"/>
+      <c r="P19" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="225" t="s">
+      <c r="Q19" s="235" t="s">
         <v>12</v>
       </c>
-      <c r="R19" s="206"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="212"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="209" t="s">
+      <c r="R19" s="240"/>
+      <c r="S19" s="238"/>
+      <c r="T19" s="232"/>
+      <c r="U19" s="238"/>
+      <c r="V19" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="209" t="s">
+      <c r="W19" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="X19" s="209" t="s">
+      <c r="X19" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="Y19" s="209" t="s">
+      <c r="Y19" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="Z19" s="209" t="s">
+      <c r="Z19" s="222" t="s">
         <v>26</v>
       </c>
       <c r="AA19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AC19" s="209" t="s">
+      <c r="AC19" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="AD19" s="209" t="s">
+      <c r="AD19" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="AE19" s="209" t="s">
+      <c r="AE19" s="222" t="s">
         <v>24</v>
       </c>
-      <c r="AF19" s="209" t="s">
+      <c r="AF19" s="222" t="s">
         <v>25</v>
       </c>
-      <c r="AG19" s="209" t="s">
+      <c r="AG19" s="222" t="s">
         <v>26</v>
       </c>
       <c r="AH19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AI19" s="208"/>
+      <c r="AI19" s="242"/>
     </row>
     <row r="20" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="217"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="219"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="212"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="228"/>
+      <c r="C20" s="231"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="230"/>
+      <c r="H20" s="230"/>
+      <c r="I20" s="232"/>
       <c r="J20" s="34" t="s">
         <v>8</v>
       </c>
@@ -3517,25 +3547,25 @@
       <c r="O20" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="P20" s="226"/>
-      <c r="Q20" s="226"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="236"/>
       <c r="R20" s="21" t="s">
         <v>37</v>
       </c>
       <c r="T20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="210"/>
-      <c r="W20" s="210"/>
-      <c r="X20" s="210"/>
-      <c r="Y20" s="210"/>
-      <c r="Z20" s="210"/>
+      <c r="V20" s="223"/>
+      <c r="W20" s="223"/>
+      <c r="X20" s="223"/>
+      <c r="Y20" s="223"/>
+      <c r="Z20" s="223"/>
       <c r="AA20" s="21"/>
-      <c r="AC20" s="210"/>
-      <c r="AD20" s="210"/>
-      <c r="AE20" s="210"/>
-      <c r="AF20" s="210"/>
-      <c r="AG20" s="210"/>
+      <c r="AC20" s="223"/>
+      <c r="AD20" s="223"/>
+      <c r="AE20" s="223"/>
+      <c r="AF20" s="223"/>
+      <c r="AG20" s="223"/>
       <c r="AH20" s="21" t="s">
         <v>37</v>
       </c>
@@ -6757,13 +6787,22 @@
   </sheetData>
   <autoFilter ref="A20:AI51" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="39">
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AD19:AD20"/>
+    <mergeCell ref="AE19:AE20"/>
+    <mergeCell ref="AF19:AF20"/>
+    <mergeCell ref="AG19:AG20"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="AC18:AH18"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="X19:X20"/>
+    <mergeCell ref="Y19:Y20"/>
+    <mergeCell ref="Z19:Z20"/>
     <mergeCell ref="AC19:AC20"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
@@ -6780,108 +6819,99 @@
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="P19:P20"/>
     <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AD19:AD20"/>
-    <mergeCell ref="AE19:AE20"/>
-    <mergeCell ref="AF19:AF20"/>
-    <mergeCell ref="AG19:AG20"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="AC18:AH18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="X19:X20"/>
-    <mergeCell ref="Y19:Y20"/>
-    <mergeCell ref="Z19:Z20"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B2:B20 B44:B1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23 B21 B30:B33">
-    <cfRule type="duplicateValues" dxfId="36" priority="13090"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="13090"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24:B29">
-    <cfRule type="duplicateValues" dxfId="35" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B40">
-    <cfRule type="duplicateValues" dxfId="34" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:B43">
-    <cfRule type="duplicateValues" dxfId="31" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="duplicateValues" dxfId="29" priority="12992"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="12992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B1048576 B2:B20">
-    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B1048576">
-    <cfRule type="duplicateValues" dxfId="25" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="23" priority="13115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="13115" stopIfTrue="1">
       <formula>AND(COUNTIF($C$173:$C$65319, N4)+COUNTIF($C$153:$C$154, N4)+COUNTIF($C$115:$C$116, N4)+COUNTIF($C$73:$C$76, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF(#REF!, N4)+COUNTIF($C$51:$C$52, N4)+COUNTIF(#REF!, N4)+COUNTIF($C$1:$C$20, N4)&gt;1,NOT(ISBLANK(N4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="13116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="13116" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65319, N4)+COUNTIF(#REF!, N4)&gt;1,NOT(ISBLANK(N4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="21" priority="13117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="13117" stopIfTrue="1">
       <formula>AND(COUNTIF($D$190:$D$65319, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$173:$D$174, O4)+COUNTIF($D$153:$D$154, O4)+COUNTIF($D$115:$D$116, O4)+COUNTIF($D$73:$D$76, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13118" stopIfTrue="1">
       <formula>AND(COUNTIF($D$173:$D$65319, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF($D$153:$D$154, O4)+COUNTIF($D$115:$D$116, O4)+COUNTIF($D$73:$D$76, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="13119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="13119" stopIfTrue="1">
       <formula>AND(COUNTIF($D$153:$D$65319, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF($D$115:$D$116, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$73:$D$76, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="13120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="13120" stopIfTrue="1">
       <formula>AND(COUNTIF($D$115:$D$65319, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$73:$D$76, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="13121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13121" stopIfTrue="1">
       <formula>AND(COUNTIF($D$73:$D$65319, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="13122" stopIfTrue="1">
       <formula>AND(COUNTIF($D$73:$D$65319, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="13123" stopIfTrue="1">
       <formula>AND(COUNTIF($D$54:$D$65319, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF($D$1:$D$20, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13124" stopIfTrue="1">
       <formula>AND(COUNTIF($F$228:$F$65313, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$211:$F$212, O4)+COUNTIF($F$191:$F$192, O4)+COUNTIF($F$153:$F$154, O4)+COUNTIF($F$111:$F$114, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13125" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="13125" stopIfTrue="1">
       <formula>AND(COUNTIF($F$211:$F$65313, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF($F$191:$F$192, O4)+COUNTIF($F$153:$F$154, O4)+COUNTIF($F$111:$F$114, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13126" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="13126" stopIfTrue="1">
       <formula>AND(COUNTIF($F$191:$F$65313, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF($F$153:$F$154, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$111:$F$114, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13127" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13127" stopIfTrue="1">
       <formula>AND(COUNTIF($F$153:$F$65313, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$111:$F$114, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="13128" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="13128" stopIfTrue="1">
       <formula>AND(COUNTIF($F$111:$F$65313, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="13129" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="13129" stopIfTrue="1">
       <formula>AND(COUNTIF($F$111:$F$65313, O4)+COUNTIF($F$88:$F$89, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13130" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="13130" stopIfTrue="1">
       <formula>AND(COUNTIF($F$88:$F$65313, O4)+COUNTIF($F$61:$F$62, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF($F$1:$F$20, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)+COUNTIF(#REF!, O4)&gt;1,NOT(ISBLANK(O4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6898,8 +6928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B32678F0-2B5B-4A2D-A796-1BCE3C3C0190}">
   <dimension ref="A1:AH74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="E59" zoomScale="76" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7167,128 +7197,128 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="250"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="252"/>
-      <c r="D18" s="252"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="223" t="s">
+      <c r="A18" s="202"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="207"/>
+      <c r="F18" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
+      <c r="G18" s="233"/>
+      <c r="H18" s="233"/>
+      <c r="I18" s="233"/>
+      <c r="J18" s="233"/>
       <c r="K18" s="65"/>
       <c r="L18" s="137"/>
       <c r="M18" s="137"/>
       <c r="N18" s="137"/>
       <c r="O18" s="137"/>
       <c r="P18" s="137"/>
-      <c r="Q18" s="233"/>
+      <c r="Q18" s="254"/>
       <c r="R18" s="144"/>
-      <c r="S18" s="235" t="s">
+      <c r="S18" s="256" t="s">
         <v>33</v>
       </c>
       <c r="T18" s="71"/>
-      <c r="U18" s="237" t="s">
+      <c r="U18" s="251" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="238"/>
-      <c r="W18" s="238"/>
-      <c r="X18" s="238"/>
-      <c r="Y18" s="238"/>
-      <c r="Z18" s="239"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="252"/>
+      <c r="Y18" s="252"/>
+      <c r="Z18" s="253"/>
       <c r="AA18" s="71"/>
-      <c r="AB18" s="237" t="s">
+      <c r="AB18" s="251" t="s">
         <v>28</v>
       </c>
-      <c r="AC18" s="238"/>
-      <c r="AD18" s="238"/>
-      <c r="AE18" s="238"/>
-      <c r="AF18" s="238"/>
-      <c r="AG18" s="239"/>
-      <c r="AH18" s="240" t="s">
+      <c r="AC18" s="252"/>
+      <c r="AD18" s="252"/>
+      <c r="AE18" s="252"/>
+      <c r="AF18" s="252"/>
+      <c r="AG18" s="253"/>
+      <c r="AH18" s="248" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="251"/>
-      <c r="B19" s="253"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="254"/>
-      <c r="E19" s="254"/>
-      <c r="F19" s="256"/>
-      <c r="G19" s="242" t="s">
+      <c r="A19" s="203"/>
+      <c r="B19" s="205"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="243"/>
-      <c r="I19" s="256"/>
-      <c r="J19" s="256"/>
-      <c r="K19" s="257"/>
-      <c r="L19" s="257"/>
-      <c r="M19" s="244"/>
-      <c r="N19" s="244"/>
-      <c r="O19" s="244"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="234"/>
+      <c r="H19" s="247"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="208"/>
+      <c r="K19" s="209"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="196"/>
+      <c r="N19" s="196"/>
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="255"/>
       <c r="R19" s="145"/>
-      <c r="S19" s="236"/>
-      <c r="U19" s="232" t="s">
+      <c r="S19" s="257"/>
+      <c r="U19" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="V19" s="232" t="s">
+      <c r="V19" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="W19" s="232" t="s">
+      <c r="W19" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="X19" s="232" t="s">
+      <c r="X19" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="Y19" s="232" t="s">
+      <c r="Y19" s="250" t="s">
         <v>26</v>
       </c>
       <c r="Z19" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="232" t="s">
+      <c r="AB19" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="232" t="s">
+      <c r="AC19" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="AD19" s="232" t="s">
+      <c r="AD19" s="250" t="s">
         <v>24</v>
       </c>
-      <c r="AE19" s="232" t="s">
+      <c r="AE19" s="250" t="s">
         <v>25</v>
       </c>
-      <c r="AF19" s="232" t="s">
+      <c r="AF19" s="250" t="s">
         <v>26</v>
       </c>
       <c r="AG19" s="140" t="s">
         <v>207</v>
       </c>
-      <c r="AH19" s="241"/>
+      <c r="AH19" s="249"/>
     </row>
     <row r="20" spans="1:34" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="250" t="s">
+      <c r="A20" s="202" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="252" t="s">
+      <c r="B20" s="204" t="s">
         <v>198</v>
       </c>
-      <c r="C20" s="252" t="s">
+      <c r="C20" s="204" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="252" t="s">
+      <c r="D20" s="204" t="s">
         <v>199</v>
       </c>
-      <c r="E20" s="255" t="s">
+      <c r="E20" s="207" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="256" t="s">
+      <c r="F20" s="208" t="s">
         <v>203</v>
       </c>
       <c r="G20" s="34" t="s">
@@ -7297,28 +7327,28 @@
       <c r="H20" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="I20" s="256" t="s">
+      <c r="I20" s="208" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="256" t="s">
+      <c r="J20" s="208" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="257" t="s">
+      <c r="K20" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="L20" s="257" t="s">
+      <c r="L20" s="209" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="245" t="s">
+      <c r="M20" s="197" t="s">
         <v>212</v>
       </c>
-      <c r="N20" s="245" t="s">
+      <c r="N20" s="197" t="s">
         <v>207</v>
       </c>
-      <c r="O20" s="245" t="s">
+      <c r="O20" s="197" t="s">
         <v>213</v>
       </c>
-      <c r="P20" s="245" t="s">
+      <c r="P20" s="197" t="s">
         <v>214</v>
       </c>
       <c r="Q20" s="118" t="s">
@@ -7328,17 +7358,17 @@
       <c r="S20" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="U20" s="220"/>
-      <c r="V20" s="220"/>
-      <c r="W20" s="220"/>
-      <c r="X20" s="220"/>
-      <c r="Y20" s="220"/>
+      <c r="U20" s="228"/>
+      <c r="V20" s="228"/>
+      <c r="W20" s="228"/>
+      <c r="X20" s="228"/>
+      <c r="Y20" s="228"/>
       <c r="Z20" s="119"/>
-      <c r="AB20" s="220"/>
-      <c r="AC20" s="220"/>
-      <c r="AD20" s="220"/>
-      <c r="AE20" s="220"/>
-      <c r="AF20" s="220"/>
+      <c r="AB20" s="228"/>
+      <c r="AC20" s="228"/>
+      <c r="AD20" s="228"/>
+      <c r="AE20" s="228"/>
+      <c r="AF20" s="228"/>
       <c r="AG20" s="119" t="s">
         <v>18</v>
       </c>
@@ -7374,7 +7404,7 @@
         <v>45938</v>
       </c>
       <c r="I21" s="110">
-        <f t="shared" ref="I21:I24" si="2">H21+1</f>
+        <f t="shared" ref="I21:J36" si="2">H21+1</f>
         <v>45939</v>
       </c>
       <c r="J21" s="110">
@@ -7392,7 +7422,6 @@
       <c r="O21" s="111"/>
       <c r="P21" s="111"/>
       <c r="Q21" s="112">
-        <f>D21*10940</f>
         <v>773950.3</v>
       </c>
       <c r="R21" s="145"/>
@@ -7484,7 +7513,6 @@
       <c r="O22" s="111"/>
       <c r="P22" s="111"/>
       <c r="Q22" s="112">
-        <f>D22*10940</f>
         <v>499925.18000000005</v>
       </c>
       <c r="R22" s="145"/>
@@ -7562,7 +7590,7 @@
         <v>45953</v>
       </c>
       <c r="J23" s="110">
-        <f t="shared" ref="J23:J24" si="12">I23+1</f>
+        <f t="shared" si="2"/>
         <v>45954</v>
       </c>
       <c r="K23" s="111" t="s">
@@ -7576,7 +7604,6 @@
       <c r="O23" s="111"/>
       <c r="P23" s="111"/>
       <c r="Q23" s="112">
-        <f t="shared" ref="Q23:Q26" si="13">D23*10940</f>
         <v>683137.36</v>
       </c>
       <c r="R23" s="145"/>
@@ -7654,7 +7681,7 @@
         <v>45960</v>
       </c>
       <c r="J24" s="110">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v>45961</v>
       </c>
       <c r="K24" s="111" t="s">
@@ -7668,7 +7695,6 @@
       <c r="O24" s="111"/>
       <c r="P24" s="111"/>
       <c r="Q24" s="112">
-        <f t="shared" si="13"/>
         <v>720650.62</v>
       </c>
       <c r="R24" s="145"/>
@@ -7737,11 +7763,11 @@
         <v>45932</v>
       </c>
       <c r="H25" s="110">
-        <f t="shared" ref="H25:H30" si="14">G25+8</f>
+        <f t="shared" ref="H25:H30" si="12">G25+8</f>
         <v>45940</v>
       </c>
       <c r="I25" s="110">
-        <f t="shared" ref="I25:I27" si="15">H25+1</f>
+        <f t="shared" si="2"/>
         <v>45941</v>
       </c>
       <c r="J25" s="110">
@@ -7759,7 +7785,6 @@
       <c r="O25" s="111"/>
       <c r="P25" s="111"/>
       <c r="Q25" s="112">
-        <f t="shared" si="13"/>
         <v>843222.38</v>
       </c>
       <c r="R25" s="145"/>
@@ -7825,15 +7850,15 @@
         <v>45940</v>
       </c>
       <c r="G26" s="110">
-        <f t="shared" ref="G26" si="16">H25+1</f>
+        <f t="shared" ref="G26" si="13">H25+1</f>
         <v>45941</v>
       </c>
       <c r="H26" s="110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45949</v>
       </c>
       <c r="I26" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>45950</v>
       </c>
       <c r="J26" s="110">
@@ -7851,7 +7876,6 @@
       <c r="O26" s="111"/>
       <c r="P26" s="111"/>
       <c r="Q26" s="112">
-        <f t="shared" si="13"/>
         <v>773950.3</v>
       </c>
       <c r="R26" s="145"/>
@@ -7921,15 +7945,15 @@
         <v>45950</v>
       </c>
       <c r="H27" s="110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45958</v>
       </c>
       <c r="I27" s="110">
-        <f t="shared" si="15"/>
+        <f t="shared" si="2"/>
         <v>45959</v>
       </c>
       <c r="J27" s="110">
-        <f t="shared" ref="J27" si="17">I27+1</f>
+        <f t="shared" si="2"/>
         <v>45960</v>
       </c>
       <c r="K27" s="111" t="s">
@@ -7943,7 +7967,6 @@
       <c r="O27" s="111"/>
       <c r="P27" s="111"/>
       <c r="Q27" s="112">
-        <f>D27*10940</f>
         <v>1063017.9200000002</v>
       </c>
       <c r="R27" s="145"/>
@@ -8012,11 +8035,11 @@
         <v>45932</v>
       </c>
       <c r="H28" s="110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45940</v>
       </c>
       <c r="I28" s="110">
-        <f t="shared" ref="I28:I30" si="18">H28+1</f>
+        <f t="shared" si="2"/>
         <v>45941</v>
       </c>
       <c r="J28" s="110">
@@ -8034,7 +8057,6 @@
       <c r="O28" s="111"/>
       <c r="P28" s="111"/>
       <c r="Q28" s="112">
-        <f>D28*10940</f>
         <v>395590.39999999997</v>
       </c>
       <c r="R28" s="145"/>
@@ -8100,15 +8122,15 @@
         <v>45940</v>
       </c>
       <c r="G29" s="110">
-        <f t="shared" ref="G29" si="19">H28+1</f>
+        <f t="shared" ref="G29" si="14">H28+1</f>
         <v>45941</v>
       </c>
       <c r="H29" s="110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45949</v>
       </c>
       <c r="I29" s="110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>45950</v>
       </c>
       <c r="J29" s="110">
@@ -8126,7 +8148,6 @@
       <c r="O29" s="111"/>
       <c r="P29" s="111"/>
       <c r="Q29" s="112">
-        <f>D29*10940</f>
         <v>414965.13999999996</v>
       </c>
       <c r="R29" s="145"/>
@@ -8196,15 +8217,15 @@
         <v>45950</v>
       </c>
       <c r="H30" s="110">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>45958</v>
       </c>
       <c r="I30" s="110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="2"/>
         <v>45959</v>
       </c>
       <c r="J30" s="110">
-        <f t="shared" ref="J30" si="20">I30+1</f>
+        <f t="shared" si="2"/>
         <v>45960</v>
       </c>
       <c r="K30" s="111" t="s">
@@ -8218,7 +8239,6 @@
       <c r="O30" s="111"/>
       <c r="P30" s="111"/>
       <c r="Q30" s="112">
-        <f>D30*10940</f>
         <v>711406.32000000007</v>
       </c>
       <c r="R30" s="145"/>
@@ -8291,7 +8311,7 @@
         <v>45937</v>
       </c>
       <c r="I31" s="110">
-        <f t="shared" ref="I31:I34" si="21">H31+1</f>
+        <f t="shared" si="2"/>
         <v>45938</v>
       </c>
       <c r="J31" s="110">
@@ -8309,7 +8329,6 @@
       <c r="O31" s="111"/>
       <c r="P31" s="111"/>
       <c r="Q31" s="112">
-        <f t="shared" ref="Q31:Q46" si="22">D31*10940</f>
         <v>414965.13999999996</v>
       </c>
       <c r="R31" s="145"/>
@@ -8375,7 +8394,7 @@
         <v>45937</v>
       </c>
       <c r="G32" s="110">
-        <f t="shared" ref="G32" si="23">H31+1</f>
+        <f t="shared" ref="G32" si="15">H31+1</f>
         <v>45938</v>
       </c>
       <c r="H32" s="110">
@@ -8383,7 +8402,7 @@
         <v>45943</v>
       </c>
       <c r="I32" s="110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>45944</v>
       </c>
       <c r="J32" s="110">
@@ -8401,7 +8420,6 @@
       <c r="O32" s="111"/>
       <c r="P32" s="111"/>
       <c r="Q32" s="112">
-        <f t="shared" si="22"/>
         <v>801300.3</v>
       </c>
       <c r="R32" s="145"/>
@@ -8475,11 +8493,11 @@
         <v>45950</v>
       </c>
       <c r="I33" s="110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>45951</v>
       </c>
       <c r="J33" s="110">
-        <f t="shared" ref="J33:J34" si="24">I33+1</f>
+        <f t="shared" si="2"/>
         <v>45952</v>
       </c>
       <c r="K33" s="111" t="s">
@@ -8493,7 +8511,6 @@
       <c r="O33" s="111"/>
       <c r="P33" s="111"/>
       <c r="Q33" s="112">
-        <f t="shared" si="22"/>
         <v>389485.87999999995</v>
       </c>
       <c r="R33" s="145"/>
@@ -8567,11 +8584,11 @@
         <v>45959</v>
       </c>
       <c r="I34" s="110">
-        <f t="shared" si="21"/>
+        <f t="shared" si="2"/>
         <v>45960</v>
       </c>
       <c r="J34" s="110">
-        <f t="shared" si="24"/>
+        <f t="shared" si="2"/>
         <v>45961</v>
       </c>
       <c r="K34" s="111" t="s">
@@ -8585,7 +8602,6 @@
       <c r="O34" s="111"/>
       <c r="P34" s="111"/>
       <c r="Q34" s="112">
-        <f t="shared" si="22"/>
         <v>895209.25999999989</v>
       </c>
       <c r="R34" s="145"/>
@@ -8658,7 +8674,7 @@
         <v>45936</v>
       </c>
       <c r="I35" s="110">
-        <f t="shared" ref="I35:I41" si="25">H35+1</f>
+        <f t="shared" si="2"/>
         <v>45937</v>
       </c>
       <c r="J35" s="110">
@@ -8671,12 +8687,11 @@
       <c r="L35" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M35" s="246"/>
-      <c r="N35" s="246"/>
-      <c r="O35" s="246"/>
-      <c r="P35" s="246"/>
+      <c r="M35" s="198"/>
+      <c r="N35" s="198"/>
+      <c r="O35" s="198"/>
+      <c r="P35" s="198"/>
       <c r="Q35" s="117">
-        <f t="shared" si="22"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R35" s="145"/>
@@ -8742,7 +8757,7 @@
         <v>45936</v>
       </c>
       <c r="G36" s="110">
-        <f t="shared" ref="G36" si="26">H35+1</f>
+        <f t="shared" ref="G36" si="16">H35+1</f>
         <v>45937</v>
       </c>
       <c r="H36" s="110">
@@ -8750,7 +8765,7 @@
         <v>45946</v>
       </c>
       <c r="I36" s="110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="2"/>
         <v>45947</v>
       </c>
       <c r="J36" s="110">
@@ -8763,12 +8778,11 @@
       <c r="L36" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M36" s="246"/>
-      <c r="N36" s="246"/>
-      <c r="O36" s="246"/>
-      <c r="P36" s="246"/>
+      <c r="M36" s="198"/>
+      <c r="N36" s="198"/>
+      <c r="O36" s="198"/>
+      <c r="P36" s="198"/>
       <c r="Q36" s="117">
-        <f t="shared" si="22"/>
         <v>1063017.9200000002</v>
       </c>
       <c r="R36" s="145"/>
@@ -8842,11 +8856,11 @@
         <v>45959</v>
       </c>
       <c r="I37" s="110">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I37:J52" si="17">H37+1</f>
         <v>45960</v>
       </c>
       <c r="J37" s="110">
-        <f t="shared" ref="J37" si="27">I37+1</f>
+        <f t="shared" si="17"/>
         <v>45961</v>
       </c>
       <c r="K37" s="111" t="s">
@@ -8855,12 +8869,11 @@
       <c r="L37" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="246"/>
-      <c r="N37" s="246"/>
-      <c r="O37" s="246"/>
-      <c r="P37" s="246"/>
+      <c r="M37" s="198"/>
+      <c r="N37" s="198"/>
+      <c r="O37" s="198"/>
+      <c r="P37" s="198"/>
       <c r="Q37" s="117">
-        <f t="shared" si="22"/>
         <v>1366953</v>
       </c>
       <c r="R37" s="145"/>
@@ -8933,7 +8946,7 @@
         <v>45938</v>
       </c>
       <c r="I38" s="178">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>45939</v>
       </c>
       <c r="J38" s="178">
@@ -8946,12 +8959,11 @@
       <c r="L38" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="M38" s="247"/>
-      <c r="N38" s="247"/>
-      <c r="O38" s="247"/>
-      <c r="P38" s="247"/>
+      <c r="M38" s="199"/>
+      <c r="N38" s="199"/>
+      <c r="O38" s="199"/>
+      <c r="P38" s="199"/>
       <c r="Q38" s="180">
-        <f t="shared" si="22"/>
         <v>952009.74</v>
       </c>
       <c r="R38" s="181"/>
@@ -9021,7 +9033,7 @@
         <v>45938</v>
       </c>
       <c r="G39" s="110">
-        <f t="shared" ref="G39" si="28">H38+1</f>
+        <f t="shared" ref="G39" si="18">H38+1</f>
         <v>45939</v>
       </c>
       <c r="H39" s="110">
@@ -9029,7 +9041,7 @@
         <v>45947</v>
       </c>
       <c r="I39" s="110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>45948</v>
       </c>
       <c r="J39" s="110">
@@ -9042,12 +9054,11 @@
       <c r="L39" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M39" s="246"/>
-      <c r="N39" s="246"/>
-      <c r="O39" s="246"/>
-      <c r="P39" s="246"/>
+      <c r="M39" s="198"/>
+      <c r="N39" s="198"/>
+      <c r="O39" s="198"/>
+      <c r="P39" s="198"/>
       <c r="Q39" s="117">
-        <f t="shared" si="22"/>
         <v>735846.28</v>
       </c>
       <c r="R39" s="145"/>
@@ -9121,11 +9132,11 @@
         <v>45953</v>
       </c>
       <c r="I40" s="110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>45954</v>
       </c>
       <c r="J40" s="110">
-        <f t="shared" ref="J40:J41" si="29">I40+1</f>
+        <f t="shared" si="17"/>
         <v>45955</v>
       </c>
       <c r="K40" s="111" t="s">
@@ -9134,10 +9145,10 @@
       <c r="L40" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M40" s="246"/>
-      <c r="N40" s="246"/>
-      <c r="O40" s="246"/>
-      <c r="P40" s="246"/>
+      <c r="M40" s="198"/>
+      <c r="N40" s="198"/>
+      <c r="O40" s="198"/>
+      <c r="P40" s="198"/>
       <c r="Q40" s="117">
         <v>414965.13999999996</v>
       </c>
@@ -9212,11 +9223,11 @@
         <v>45959</v>
       </c>
       <c r="I41" s="110">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>45960</v>
       </c>
       <c r="J41" s="110">
-        <f t="shared" si="29"/>
+        <f t="shared" si="17"/>
         <v>45961</v>
       </c>
       <c r="K41" s="111" t="s">
@@ -9225,10 +9236,10 @@
       <c r="L41" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="246"/>
-      <c r="N41" s="246"/>
-      <c r="O41" s="246"/>
-      <c r="P41" s="246"/>
+      <c r="M41" s="198"/>
+      <c r="N41" s="198"/>
+      <c r="O41" s="198"/>
+      <c r="P41" s="198"/>
       <c r="Q41" s="117">
         <v>414965.13999999996</v>
       </c>
@@ -9302,7 +9313,7 @@
         <v>45942</v>
       </c>
       <c r="I42" s="178">
-        <f t="shared" ref="I42:I44" si="30">H42+1</f>
+        <f t="shared" si="17"/>
         <v>45943</v>
       </c>
       <c r="J42" s="178">
@@ -9320,7 +9331,6 @@
       <c r="O42" s="179"/>
       <c r="P42" s="179"/>
       <c r="Q42" s="193">
-        <f t="shared" ref="Q42" si="31">D42*10940</f>
         <v>683137.36</v>
       </c>
       <c r="R42" s="181"/>
@@ -9390,7 +9400,7 @@
         <v>45942</v>
       </c>
       <c r="G43" s="110">
-        <f t="shared" ref="G43" si="32">H42+1</f>
+        <f t="shared" ref="G43" si="19">H42+1</f>
         <v>45943</v>
       </c>
       <c r="H43" s="110">
@@ -9398,7 +9408,7 @@
         <v>45953</v>
       </c>
       <c r="I43" s="110">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>45954</v>
       </c>
       <c r="J43" s="110">
@@ -9411,10 +9421,10 @@
       <c r="L43" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="248"/>
-      <c r="N43" s="248"/>
-      <c r="O43" s="248"/>
-      <c r="P43" s="248"/>
+      <c r="M43" s="200"/>
+      <c r="N43" s="200"/>
+      <c r="O43" s="200"/>
+      <c r="P43" s="200"/>
       <c r="Q43" s="117">
         <v>823552.26</v>
       </c>
@@ -9485,15 +9495,15 @@
         <v>45954</v>
       </c>
       <c r="H44" s="110">
-        <f t="shared" ref="H44:H49" si="33">G44+5</f>
+        <f t="shared" ref="H44:H49" si="20">G44+5</f>
         <v>45959</v>
       </c>
       <c r="I44" s="110">
-        <f t="shared" si="30"/>
+        <f t="shared" si="17"/>
         <v>45960</v>
       </c>
       <c r="J44" s="110">
-        <f t="shared" ref="J44" si="34">I44+1</f>
+        <f t="shared" si="17"/>
         <v>45961</v>
       </c>
       <c r="K44" s="111" t="s">
@@ -9502,10 +9512,10 @@
       <c r="L44" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M44" s="248"/>
-      <c r="N44" s="248"/>
-      <c r="O44" s="248"/>
-      <c r="P44" s="248"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="200"/>
+      <c r="O44" s="200"/>
+      <c r="P44" s="200"/>
       <c r="Q44" s="117">
         <v>414965.13999999996</v>
       </c>
@@ -9575,11 +9585,11 @@
         <v>45932</v>
       </c>
       <c r="H45" s="110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>45937</v>
       </c>
       <c r="I45" s="110">
-        <f t="shared" ref="I45:I49" si="35">H45+1</f>
+        <f t="shared" si="17"/>
         <v>45938</v>
       </c>
       <c r="J45" s="110">
@@ -9592,12 +9602,11 @@
       <c r="L45" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M45" s="248"/>
-      <c r="N45" s="248"/>
-      <c r="O45" s="248"/>
-      <c r="P45" s="248"/>
+      <c r="M45" s="200"/>
+      <c r="N45" s="200"/>
+      <c r="O45" s="200"/>
+      <c r="P45" s="200"/>
       <c r="Q45" s="117">
-        <f t="shared" si="22"/>
         <v>414965.13999999996</v>
       </c>
       <c r="R45" s="145"/>
@@ -9663,15 +9672,15 @@
         <v>45937</v>
       </c>
       <c r="G46" s="110">
-        <f t="shared" ref="G46" si="36">H45+1</f>
+        <f t="shared" ref="G46" si="21">H45+1</f>
         <v>45938</v>
       </c>
       <c r="H46" s="110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>45943</v>
       </c>
       <c r="I46" s="110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>45944</v>
       </c>
       <c r="J46" s="110">
@@ -9684,12 +9693,11 @@
       <c r="L46" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M46" s="248"/>
-      <c r="N46" s="248"/>
-      <c r="O46" s="248"/>
-      <c r="P46" s="248"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="200"/>
       <c r="Q46" s="117">
-        <f t="shared" si="22"/>
         <v>499925.18000000005</v>
       </c>
       <c r="R46" s="145"/>
@@ -9759,15 +9767,15 @@
         <v>45944</v>
       </c>
       <c r="H47" s="110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>45949</v>
       </c>
       <c r="I47" s="110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>45950</v>
       </c>
       <c r="J47" s="110">
-        <f t="shared" ref="J47:J49" si="37">I47+1</f>
+        <f t="shared" si="17"/>
         <v>45951</v>
       </c>
       <c r="K47" s="111" t="s">
@@ -9776,12 +9784,11 @@
       <c r="L47" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M47" s="248"/>
-      <c r="N47" s="248"/>
-      <c r="O47" s="248"/>
-      <c r="P47" s="248"/>
+      <c r="M47" s="200"/>
+      <c r="N47" s="200"/>
+      <c r="O47" s="200"/>
+      <c r="P47" s="200"/>
       <c r="Q47" s="117">
-        <f t="shared" ref="Q47:Q68" si="38">D47*10940</f>
         <v>843222.38</v>
       </c>
       <c r="R47" s="145"/>
@@ -9851,15 +9858,15 @@
         <v>45950</v>
       </c>
       <c r="H48" s="110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>45955</v>
       </c>
       <c r="I48" s="110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>45956</v>
       </c>
       <c r="J48" s="110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="17"/>
         <v>45957</v>
       </c>
       <c r="K48" s="111" t="s">
@@ -9868,12 +9875,11 @@
       <c r="L48" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M48" s="248"/>
-      <c r="N48" s="248"/>
-      <c r="O48" s="248"/>
-      <c r="P48" s="248"/>
+      <c r="M48" s="200"/>
+      <c r="N48" s="200"/>
+      <c r="O48" s="200"/>
+      <c r="P48" s="200"/>
       <c r="Q48" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R48" s="145"/>
@@ -9943,15 +9949,15 @@
         <v>45956</v>
       </c>
       <c r="H49" s="110">
-        <f t="shared" si="33"/>
+        <f t="shared" si="20"/>
         <v>45961</v>
       </c>
       <c r="I49" s="110">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>45962</v>
       </c>
       <c r="J49" s="110">
-        <f t="shared" si="37"/>
+        <f t="shared" si="17"/>
         <v>45963</v>
       </c>
       <c r="K49" s="111" t="s">
@@ -9960,12 +9966,11 @@
       <c r="L49" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="M49" s="248"/>
-      <c r="N49" s="248"/>
-      <c r="O49" s="248"/>
-      <c r="P49" s="248"/>
+      <c r="M49" s="200"/>
+      <c r="N49" s="200"/>
+      <c r="O49" s="200"/>
+      <c r="P49" s="200"/>
       <c r="Q49" s="117">
-        <f t="shared" si="38"/>
         <v>606633.94000000006</v>
       </c>
       <c r="R49" s="145"/>
@@ -10038,7 +10043,7 @@
         <v>45936</v>
       </c>
       <c r="I50" s="110">
-        <f t="shared" ref="I50:I57" si="39">H50+1</f>
+        <f t="shared" si="17"/>
         <v>45937</v>
       </c>
       <c r="J50" s="110">
@@ -10056,7 +10061,6 @@
       <c r="O50" s="138"/>
       <c r="P50" s="138"/>
       <c r="Q50" s="112">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R50" s="145"/>
@@ -10122,7 +10126,7 @@
         <v>45936</v>
       </c>
       <c r="G51" s="178">
-        <f t="shared" ref="G51" si="40">H50+1</f>
+        <f t="shared" ref="G51" si="22">H50+1</f>
         <v>45937</v>
       </c>
       <c r="H51" s="178">
@@ -10130,7 +10134,7 @@
         <v>45945</v>
       </c>
       <c r="I51" s="178">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>45946</v>
       </c>
       <c r="J51" s="178">
@@ -10148,7 +10152,6 @@
       <c r="O51" s="195"/>
       <c r="P51" s="195"/>
       <c r="Q51" s="193">
-        <f t="shared" si="38"/>
         <v>389485.87999999995</v>
       </c>
       <c r="R51" s="181"/>
@@ -10226,11 +10229,11 @@
         <v>45950</v>
       </c>
       <c r="I52" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="17"/>
         <v>45951</v>
       </c>
       <c r="J52" s="110">
-        <f t="shared" ref="J52:J53" si="41">I52+1</f>
+        <f t="shared" si="17"/>
         <v>45952</v>
       </c>
       <c r="K52" s="110" t="s">
@@ -10239,12 +10242,11 @@
       <c r="L52" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M52" s="248"/>
-      <c r="N52" s="248"/>
-      <c r="O52" s="248"/>
-      <c r="P52" s="248"/>
+      <c r="M52" s="200"/>
+      <c r="N52" s="200"/>
+      <c r="O52" s="200"/>
+      <c r="P52" s="200"/>
       <c r="Q52" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R52" s="145"/>
@@ -10318,11 +10320,11 @@
         <v>45959</v>
       </c>
       <c r="I53" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="I53:J68" si="23">H53+1</f>
         <v>45960</v>
       </c>
       <c r="J53" s="110">
-        <f t="shared" si="41"/>
+        <f t="shared" si="23"/>
         <v>45961</v>
       </c>
       <c r="K53" s="110" t="s">
@@ -10331,12 +10333,11 @@
       <c r="L53" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M53" s="248"/>
-      <c r="N53" s="248"/>
-      <c r="O53" s="248"/>
-      <c r="P53" s="248"/>
+      <c r="M53" s="200"/>
+      <c r="N53" s="200"/>
+      <c r="O53" s="200"/>
+      <c r="P53" s="200"/>
       <c r="Q53" s="117">
-        <f t="shared" si="38"/>
         <v>389485.87999999995</v>
       </c>
       <c r="R53" s="145"/>
@@ -10409,7 +10410,7 @@
         <v>45938</v>
       </c>
       <c r="I54" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>45939</v>
       </c>
       <c r="J54" s="110">
@@ -10422,12 +10423,11 @@
       <c r="L54" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M54" s="248"/>
-      <c r="N54" s="248"/>
-      <c r="O54" s="248"/>
-      <c r="P54" s="248"/>
+      <c r="M54" s="200"/>
+      <c r="N54" s="200"/>
+      <c r="O54" s="200"/>
+      <c r="P54" s="200"/>
       <c r="Q54" s="117">
-        <f t="shared" si="38"/>
         <v>606633.94000000006</v>
       </c>
       <c r="R54" s="145"/>
@@ -10493,7 +10493,7 @@
         <v>45938</v>
       </c>
       <c r="G55" s="110">
-        <f t="shared" ref="G55" si="42">H54+1</f>
+        <f t="shared" ref="G55" si="24">H54+1</f>
         <v>45939</v>
       </c>
       <c r="H55" s="110">
@@ -10501,7 +10501,7 @@
         <v>45945</v>
       </c>
       <c r="I55" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>45946</v>
       </c>
       <c r="J55" s="110">
@@ -10514,12 +10514,11 @@
       <c r="L55" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M55" s="248"/>
-      <c r="N55" s="248"/>
-      <c r="O55" s="248"/>
-      <c r="P55" s="248"/>
+      <c r="M55" s="200"/>
+      <c r="N55" s="200"/>
+      <c r="O55" s="200"/>
+      <c r="P55" s="200"/>
       <c r="Q55" s="117">
-        <f t="shared" si="38"/>
         <v>679549.04</v>
       </c>
       <c r="R55" s="145"/>
@@ -10589,15 +10588,15 @@
         <v>45946</v>
       </c>
       <c r="H56" s="110">
-        <f t="shared" ref="H56:H68" si="43">G56+4</f>
+        <f t="shared" ref="H56:H68" si="25">G56+4</f>
         <v>45950</v>
       </c>
       <c r="I56" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>45951</v>
       </c>
       <c r="J56" s="110">
-        <f t="shared" ref="J56:J57" si="44">I56+1</f>
+        <f t="shared" si="23"/>
         <v>45952</v>
       </c>
       <c r="K56" s="110" t="s">
@@ -10606,12 +10605,11 @@
       <c r="L56" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M56" s="248"/>
-      <c r="N56" s="248"/>
-      <c r="O56" s="248"/>
-      <c r="P56" s="248"/>
+      <c r="M56" s="200"/>
+      <c r="N56" s="200"/>
+      <c r="O56" s="200"/>
+      <c r="P56" s="200"/>
       <c r="Q56" s="117">
-        <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
       <c r="R56" s="145"/>
@@ -10681,15 +10679,15 @@
         <v>45951</v>
       </c>
       <c r="H57" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45955</v>
       </c>
       <c r="I57" s="110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="23"/>
         <v>45956</v>
       </c>
       <c r="J57" s="110">
-        <f t="shared" si="44"/>
+        <f t="shared" si="23"/>
         <v>45957</v>
       </c>
       <c r="K57" s="110" t="s">
@@ -10698,12 +10696,11 @@
       <c r="L57" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M57" s="248"/>
-      <c r="N57" s="248"/>
-      <c r="O57" s="248"/>
-      <c r="P57" s="248"/>
+      <c r="M57" s="200"/>
+      <c r="N57" s="200"/>
+      <c r="O57" s="200"/>
+      <c r="P57" s="200"/>
       <c r="Q57" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R57" s="145"/>
@@ -10773,15 +10770,15 @@
         <v>45956</v>
       </c>
       <c r="H58" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45960</v>
       </c>
       <c r="I58" s="110">
-        <f t="shared" ref="I58" si="45">H58+1</f>
+        <f t="shared" si="23"/>
         <v>45961</v>
       </c>
       <c r="J58" s="110">
-        <f t="shared" ref="J58" si="46">I58+1</f>
+        <f t="shared" si="23"/>
         <v>45962</v>
       </c>
       <c r="K58" s="110" t="s">
@@ -10790,12 +10787,11 @@
       <c r="L58" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M58" s="248"/>
-      <c r="N58" s="248"/>
-      <c r="O58" s="248"/>
-      <c r="P58" s="248"/>
+      <c r="M58" s="200"/>
+      <c r="N58" s="200"/>
+      <c r="O58" s="200"/>
+      <c r="P58" s="200"/>
       <c r="Q58" s="117">
-        <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
       <c r="R58" s="145"/>
@@ -10864,11 +10860,11 @@
         <v>45932</v>
       </c>
       <c r="H59" s="178">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45936</v>
       </c>
       <c r="I59" s="178">
-        <f t="shared" ref="I59:I63" si="47">H59+1</f>
+        <f t="shared" si="23"/>
         <v>45937</v>
       </c>
       <c r="J59" s="178">
@@ -10881,12 +10877,11 @@
       <c r="L59" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="M59" s="249"/>
-      <c r="N59" s="249"/>
-      <c r="O59" s="249"/>
-      <c r="P59" s="249"/>
+      <c r="M59" s="201"/>
+      <c r="N59" s="201"/>
+      <c r="O59" s="201"/>
+      <c r="P59" s="201"/>
       <c r="Q59" s="180">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R59" s="181"/>
@@ -10956,15 +10951,15 @@
         <v>45936</v>
       </c>
       <c r="G60" s="110">
-        <f t="shared" ref="G60" si="48">H59+1</f>
+        <f t="shared" ref="G60" si="26">H59+1</f>
         <v>45937</v>
       </c>
       <c r="H60" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45941</v>
       </c>
       <c r="I60" s="110">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>45942</v>
       </c>
       <c r="J60" s="110">
@@ -10977,12 +10972,11 @@
       <c r="L60" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M60" s="248"/>
-      <c r="N60" s="248"/>
-      <c r="O60" s="248"/>
-      <c r="P60" s="248"/>
+      <c r="M60" s="200"/>
+      <c r="N60" s="200"/>
+      <c r="O60" s="200"/>
+      <c r="P60" s="200"/>
       <c r="Q60" s="117">
-        <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
       <c r="R60" s="145"/>
@@ -11052,15 +11046,15 @@
         <v>45942</v>
       </c>
       <c r="H61" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45946</v>
       </c>
       <c r="I61" s="110">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>45947</v>
       </c>
       <c r="J61" s="110">
-        <f t="shared" ref="J61:J63" si="49">I61+1</f>
+        <f t="shared" si="23"/>
         <v>45948</v>
       </c>
       <c r="K61" s="110" t="s">
@@ -11069,12 +11063,11 @@
       <c r="L61" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M61" s="248"/>
-      <c r="N61" s="248"/>
-      <c r="O61" s="248"/>
-      <c r="P61" s="248"/>
+      <c r="M61" s="200"/>
+      <c r="N61" s="200"/>
+      <c r="O61" s="200"/>
+      <c r="P61" s="200"/>
       <c r="Q61" s="117">
-        <f t="shared" si="38"/>
         <v>414965.13999999996</v>
       </c>
       <c r="R61" s="145"/>
@@ -11144,15 +11137,15 @@
         <v>45947</v>
       </c>
       <c r="H62" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45951</v>
       </c>
       <c r="I62" s="110">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>45952</v>
       </c>
       <c r="J62" s="110">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>45953</v>
       </c>
       <c r="K62" s="110" t="s">
@@ -11161,12 +11154,11 @@
       <c r="L62" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M62" s="248"/>
-      <c r="N62" s="248"/>
-      <c r="O62" s="248"/>
-      <c r="P62" s="248"/>
+      <c r="M62" s="200"/>
+      <c r="N62" s="200"/>
+      <c r="O62" s="200"/>
+      <c r="P62" s="200"/>
       <c r="Q62" s="117">
-        <f t="shared" si="38"/>
         <v>479215.76</v>
       </c>
       <c r="R62" s="145"/>
@@ -11236,15 +11228,15 @@
         <v>45952</v>
       </c>
       <c r="H63" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45956</v>
       </c>
       <c r="I63" s="110">
-        <f t="shared" si="47"/>
+        <f t="shared" si="23"/>
         <v>45957</v>
       </c>
       <c r="J63" s="110">
-        <f t="shared" si="49"/>
+        <f t="shared" si="23"/>
         <v>45958</v>
       </c>
       <c r="K63" s="110" t="s">
@@ -11253,12 +11245,11 @@
       <c r="L63" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M63" s="248"/>
-      <c r="N63" s="248"/>
-      <c r="O63" s="248"/>
-      <c r="P63" s="248"/>
+      <c r="M63" s="200"/>
+      <c r="N63" s="200"/>
+      <c r="O63" s="200"/>
+      <c r="P63" s="200"/>
       <c r="Q63" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R63" s="145"/>
@@ -11327,11 +11318,11 @@
         <v>45932</v>
       </c>
       <c r="H64" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45936</v>
       </c>
       <c r="I64" s="110">
-        <f t="shared" ref="I64:I68" si="50">H64+1</f>
+        <f t="shared" si="23"/>
         <v>45937</v>
       </c>
       <c r="J64" s="110">
@@ -11344,12 +11335,11 @@
       <c r="L64" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M64" s="248"/>
-      <c r="N64" s="248"/>
-      <c r="O64" s="248"/>
-      <c r="P64" s="248"/>
+      <c r="M64" s="200"/>
+      <c r="N64" s="200"/>
+      <c r="O64" s="200"/>
+      <c r="P64" s="200"/>
       <c r="Q64" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R64" s="145"/>
@@ -11415,15 +11405,15 @@
         <v>45936</v>
       </c>
       <c r="G65" s="110">
-        <f t="shared" ref="G65" si="51">H64+1</f>
+        <f t="shared" ref="G65" si="27">H64+1</f>
         <v>45937</v>
       </c>
       <c r="H65" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45941</v>
       </c>
       <c r="I65" s="110">
-        <f t="shared" si="50"/>
+        <f t="shared" si="23"/>
         <v>45942</v>
       </c>
       <c r="J65" s="110">
@@ -11436,12 +11426,11 @@
       <c r="L65" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M65" s="248"/>
-      <c r="N65" s="248"/>
-      <c r="O65" s="248"/>
-      <c r="P65" s="248"/>
+      <c r="M65" s="200"/>
+      <c r="N65" s="200"/>
+      <c r="O65" s="200"/>
+      <c r="P65" s="200"/>
       <c r="Q65" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R65" s="145"/>
@@ -11511,15 +11500,15 @@
         <v>45942</v>
       </c>
       <c r="H66" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45946</v>
       </c>
       <c r="I66" s="110">
-        <f t="shared" si="50"/>
+        <f t="shared" si="23"/>
         <v>45947</v>
       </c>
       <c r="J66" s="110">
-        <f t="shared" ref="J66:J68" si="52">I66+1</f>
+        <f t="shared" si="23"/>
         <v>45948</v>
       </c>
       <c r="K66" s="110" t="s">
@@ -11528,12 +11517,11 @@
       <c r="L66" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M66" s="248"/>
-      <c r="N66" s="248"/>
-      <c r="O66" s="248"/>
-      <c r="P66" s="248"/>
+      <c r="M66" s="200"/>
+      <c r="N66" s="200"/>
+      <c r="O66" s="200"/>
+      <c r="P66" s="200"/>
       <c r="Q66" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R66" s="145"/>
@@ -11603,15 +11591,15 @@
         <v>45947</v>
       </c>
       <c r="H67" s="178">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45951</v>
       </c>
       <c r="I67" s="178">
-        <f t="shared" si="50"/>
+        <f t="shared" si="23"/>
         <v>45952</v>
       </c>
       <c r="J67" s="178">
-        <f t="shared" si="52"/>
+        <f t="shared" si="23"/>
         <v>45953</v>
       </c>
       <c r="K67" s="178" t="s">
@@ -11620,12 +11608,11 @@
       <c r="L67" s="195" t="s">
         <v>205</v>
       </c>
-      <c r="M67" s="249"/>
-      <c r="N67" s="249"/>
-      <c r="O67" s="249"/>
-      <c r="P67" s="249"/>
+      <c r="M67" s="201"/>
+      <c r="N67" s="201"/>
+      <c r="O67" s="201"/>
+      <c r="P67" s="201"/>
       <c r="Q67" s="180">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R67" s="181"/>
@@ -11699,15 +11686,15 @@
         <v>45952</v>
       </c>
       <c r="H68" s="110">
-        <f t="shared" si="43"/>
+        <f t="shared" si="25"/>
         <v>45956</v>
       </c>
       <c r="I68" s="110">
-        <f t="shared" si="50"/>
+        <f t="shared" si="23"/>
         <v>45957</v>
       </c>
       <c r="J68" s="110">
-        <f t="shared" si="52"/>
+        <f t="shared" si="23"/>
         <v>45958</v>
       </c>
       <c r="K68" s="110" t="s">
@@ -11716,12 +11703,11 @@
       <c r="L68" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M68" s="248"/>
-      <c r="N68" s="248"/>
-      <c r="O68" s="248"/>
-      <c r="P68" s="248"/>
+      <c r="M68" s="200"/>
+      <c r="N68" s="200"/>
+      <c r="O68" s="200"/>
+      <c r="P68" s="200"/>
       <c r="Q68" s="117">
-        <f t="shared" si="38"/>
         <v>395590.39999999997</v>
       </c>
       <c r="R68" s="145"/>
@@ -11794,56 +11780,56 @@
       <c r="S69" s="155"/>
       <c r="T69" s="84"/>
       <c r="U69" s="151">
-        <f t="shared" ref="U69:Z69" si="53">SUM(U21:U68)</f>
+        <f t="shared" ref="U69:Z69" si="28">SUM(U21:U68)</f>
         <v>4</v>
       </c>
       <c r="V69" s="151">
-        <f t="shared" si="53"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="W69" s="151">
-        <f t="shared" si="53"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X69" s="151">
-        <f t="shared" si="53"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y69" s="151">
-        <f t="shared" si="53"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z69" s="151">
-        <f t="shared" si="53"/>
+        <f t="shared" si="28"/>
         <v>5</v>
       </c>
       <c r="AA69" s="152"/>
       <c r="AB69" s="106">
-        <f t="shared" ref="AB69:AH69" si="54">SUM(AB21:AB68)</f>
+        <f t="shared" ref="AB69:AH69" si="29">SUM(AB21:AB68)</f>
         <v>2420223.38</v>
       </c>
       <c r="AC69" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>395590.39999999997</v>
       </c>
       <c r="AD69" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AE69" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AF69" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AG69" s="106">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>2815813.78</v>
       </c>
       <c r="AH69" s="92">
-        <f t="shared" si="54"/>
+        <f t="shared" si="29"/>
         <v>24750437.199999996</v>
       </c>
     </row>
@@ -11862,6 +11848,7 @@
   </sheetData>
   <autoFilter ref="A20:AH69" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="U18:Z18"/>
     <mergeCell ref="F18:J18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="AH18:AH19"/>
@@ -11878,20 +11865,19 @@
     <mergeCell ref="Y19:Y20"/>
     <mergeCell ref="Q18:Q19"/>
     <mergeCell ref="S18:S19"/>
-    <mergeCell ref="U18:Z18"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B1:B2">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:B58 B21:B26 B28 B30:B50">
-    <cfRule type="duplicateValues" dxfId="2" priority="13140"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13141"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="13142"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
